--- a/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>-0.650174915046223</v>
+      </c>
+      <c r="C2">
+        <v>0.830892166578902</v>
+      </c>
+      <c r="D2">
+        <v>2.949288858969858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>0.5428020203699957</v>
+      </c>
+      <c r="C3">
+        <v>2.920037488729503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>2.992648702939084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>2.794158013065459</v>
+      </c>
+      <c r="C5">
+        <v>0.7059782038567191</v>
+      </c>
+      <c r="D5">
+        <v>0.1551536600860205</v>
+      </c>
+      <c r="E5">
+        <v>2.191682961390041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>-0.08001123782797714</v>
-      </c>
-      <c r="C2">
-        <v>0.9103248112182349</v>
-      </c>
-      <c r="D2">
-        <v>2.742671679932558</v>
-      </c>
-      <c r="E2">
-        <v>2.382313552069576</v>
-      </c>
-      <c r="F2">
-        <v>0.7720160123127355</v>
-      </c>
-      <c r="G2">
-        <v>0.2412257165774655</v>
-      </c>
-      <c r="H2">
-        <v>2.255971654502359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>1.119418417829436</v>
+      </c>
+      <c r="C6">
+        <v>0.1156443893295904</v>
+      </c>
+      <c r="D6">
+        <v>2.087783847493114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.8763373223059119</v>
-      </c>
-      <c r="C3">
-        <v>2.697643000233519</v>
-      </c>
-      <c r="D3">
-        <v>2.37312174369933</v>
-      </c>
-      <c r="E3">
-        <v>0.7563085792146604</v>
-      </c>
-      <c r="F3">
-        <v>0.2178612282463548</v>
-      </c>
-      <c r="G3">
-        <v>2.236667284836051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>0.2611631433118839</v>
+      </c>
+      <c r="C7">
+        <v>2.080764633212284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>2.941070664293783</v>
-      </c>
-      <c r="C4">
-        <v>2.423995556977686</v>
-      </c>
-      <c r="D4">
-        <v>0.649503559892703</v>
-      </c>
-      <c r="E4">
-        <v>0.2003639145877139</v>
-      </c>
-      <c r="F4">
-        <v>2.221101998161769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>2.091588404539168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>3.298662254342857</v>
-      </c>
-      <c r="C5">
-        <v>0.8810580938869659</v>
-      </c>
-      <c r="D5">
-        <v>-0.1507352018524424</v>
-      </c>
-      <c r="E5">
-        <v>2.195416885000593</v>
-      </c>
-      <c r="F5">
-        <v>0.9549494596199768</v>
-      </c>
-      <c r="G5">
-        <v>-0.0564652143712816</v>
-      </c>
-      <c r="H5">
-        <v>1.075399480256544</v>
-      </c>
-      <c r="I5">
-        <v>0.5129001421918037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>1.084474727530034</v>
+      </c>
+      <c r="C9">
+        <v>-0.2141644380367789</v>
+      </c>
+      <c r="D9">
+        <v>0.8870512497920024</v>
+      </c>
+      <c r="E9">
+        <v>0.3281561746780989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>1.770507937078812</v>
-      </c>
-      <c r="C6">
-        <v>0.1631338961618071</v>
-      </c>
-      <c r="D6">
-        <v>1.839634038458927</v>
-      </c>
-      <c r="E6">
-        <v>0.9129498934241987</v>
-      </c>
-      <c r="F6">
-        <v>-0.05697356132524745</v>
-      </c>
-      <c r="G6">
-        <v>0.9994780003245285</v>
-      </c>
-      <c r="H6">
-        <v>0.4510572146903614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>-0.09099700375667652</v>
+      </c>
+      <c r="C10">
+        <v>0.8657960198576775</v>
+      </c>
+      <c r="D10">
+        <v>0.302932487019591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.585371571517314</v>
-      </c>
-      <c r="C7">
-        <v>1.990489268889367</v>
-      </c>
-      <c r="D7">
-        <v>0.7241522282105854</v>
-      </c>
-      <c r="E7">
-        <v>-0.1003113530143326</v>
-      </c>
-      <c r="F7">
-        <v>0.9801955740590182</v>
-      </c>
-      <c r="G7">
-        <v>0.3974860577944561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>0.8981794329520691</v>
+      </c>
+      <c r="C11">
+        <v>0.3559178437654984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>2.114236235475035</v>
-      </c>
-      <c r="C8">
-        <v>0.7533121702228263</v>
-      </c>
-      <c r="D8">
-        <v>-0.1722311454385403</v>
-      </c>
-      <c r="E8">
-        <v>0.9538312219123966</v>
-      </c>
-      <c r="F8">
-        <v>0.3764841643558392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>0.5090689742288268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>1.312143290000378</v>
-      </c>
-      <c r="C9">
-        <v>-0.006964089152482922</v>
-      </c>
-      <c r="D9">
-        <v>0.7584127902413809</v>
-      </c>
-      <c r="E9">
-        <v>0.354496641303649</v>
-      </c>
-      <c r="F9">
-        <v>0.7087621611816355</v>
-      </c>
-      <c r="G9">
-        <v>0.5964540587919505</v>
-      </c>
-      <c r="H9">
-        <v>0.4048285442297038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>0.8081920207483597</v>
+      </c>
+      <c r="C13">
+        <v>0.6464167531449305</v>
+      </c>
+      <c r="D13">
+        <v>0.4452091955240907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.3318089774294368</v>
-      </c>
-      <c r="C10">
-        <v>0.8678545304404814</v>
-      </c>
-      <c r="D10">
-        <v>0.2350043656636105</v>
-      </c>
-      <c r="E10">
-        <v>0.6941315874412337</v>
-      </c>
-      <c r="F10">
-        <v>0.593095301346785</v>
-      </c>
-      <c r="G10">
-        <v>0.3796892259413006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>0.7700312829900747</v>
+      </c>
+      <c r="C14">
+        <v>0.4504122884293594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.9391392798962768</v>
-      </c>
-      <c r="C11">
-        <v>0.2542595304048977</v>
-      </c>
-      <c r="D11">
-        <v>0.6566189009499825</v>
-      </c>
-      <c r="E11">
-        <v>0.5803233150696364</v>
-      </c>
-      <c r="F11">
-        <v>0.3701339555748732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>0.4884023099363324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.4949390352120528</v>
-      </c>
-      <c r="C12">
-        <v>0.7291335266891464</v>
-      </c>
-      <c r="D12">
-        <v>0.4980528858396207</v>
-      </c>
-      <c r="E12">
-        <v>0.3597218758136789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.8678351892841971</v>
-      </c>
-      <c r="C13">
-        <v>0.5464256164234945</v>
-      </c>
-      <c r="D13">
-        <v>0.325419386883906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.7763576628508231</v>
-      </c>
-      <c r="C14">
-        <v>0.3981674027757087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.5666136337378105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.21261570423489</v>
+      </c>
+      <c r="C2">
+        <v>1.632067989802498</v>
+      </c>
+      <c r="D2">
+        <v>-0.4124837060876161</v>
+      </c>
+      <c r="E2">
+        <v>-1.479929743355211</v>
+      </c>
+      <c r="F2">
+        <v>-1.592402663489404</v>
+      </c>
+      <c r="G2">
+        <v>1.908948722932154</v>
+      </c>
+      <c r="H2">
+        <v>1.001805208711243</v>
+      </c>
+      <c r="I2">
+        <v>-1.203860557869805</v>
+      </c>
+      <c r="J2">
+        <v>-0.03543530930946104</v>
+      </c>
+      <c r="K2">
+        <v>2.321787597043024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.086260191024438</v>
+      </c>
+      <c r="C3">
+        <v>-1.178127756602874</v>
+      </c>
+      <c r="D3">
+        <v>-1.032217798256341</v>
+      </c>
+      <c r="E3">
+        <v>2.232420503100754</v>
+      </c>
+      <c r="F3">
+        <v>1.363452856891491</v>
+      </c>
+      <c r="G3">
+        <v>-0.895976054328</v>
+      </c>
+      <c r="H3">
+        <v>0.278631581920374</v>
+      </c>
+      <c r="I3">
+        <v>2.622868572588569</v>
+      </c>
+      <c r="J3">
+        <v>3.403698195656406</v>
+      </c>
+      <c r="K3">
+        <v>-0.6330722925229448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1.473891622311675</v>
+      </c>
+      <c r="C4">
+        <v>1.959685852408036</v>
+      </c>
+      <c r="D4">
+        <v>1.116497560825547</v>
+      </c>
+      <c r="E4">
+        <v>-1.108178211550528</v>
+      </c>
+      <c r="F4">
+        <v>0.08119296701317502</v>
+      </c>
+      <c r="G4">
+        <v>2.435390810007719</v>
+      </c>
+      <c r="H4">
+        <v>3.221494636096438</v>
+      </c>
+      <c r="I4">
+        <v>-0.812158915672121</v>
+      </c>
+      <c r="J4">
+        <v>0.3089130689102473</v>
+      </c>
+      <c r="K4">
+        <v>-0.164828424642083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1.854392007526457</v>
+      </c>
+      <c r="C5">
+        <v>-0.584717462988765</v>
+      </c>
+      <c r="D5">
+        <v>0.416791909106992</v>
+      </c>
+      <c r="E5">
+        <v>2.687500306359277</v>
+      </c>
+      <c r="F5">
+        <v>3.419140187987452</v>
+      </c>
+      <c r="G5">
+        <v>-0.642690272053984</v>
+      </c>
+      <c r="H5">
+        <v>0.4617071855093173</v>
+      </c>
+      <c r="I5">
+        <v>-0.02113863128446702</v>
+      </c>
+      <c r="J5">
+        <v>-0.949593158490375</v>
+      </c>
+      <c r="K5">
+        <v>0.136779879699706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.5235396164696122</v>
+      </c>
+      <c r="C6">
+        <v>2.076287340715421</v>
+      </c>
+      <c r="D6">
+        <v>2.998551812989357</v>
+      </c>
+      <c r="E6">
+        <v>-0.9648805778427647</v>
+      </c>
+      <c r="F6">
+        <v>0.1938960015613151</v>
+      </c>
+      <c r="G6">
+        <v>-0.2600515096793881</v>
+      </c>
+      <c r="H6">
+        <v>-1.172773061008624</v>
+      </c>
+      <c r="I6">
+        <v>-0.077946247163865</v>
+      </c>
+      <c r="J6">
+        <v>-0.633602452107352</v>
+      </c>
+      <c r="K6">
+        <v>-0.8117578568590649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3.361103514181762</v>
+      </c>
+      <c r="C7">
+        <v>-0.831626124351093</v>
+      </c>
+      <c r="D7">
+        <v>0.2938753184617562</v>
+      </c>
+      <c r="E7">
+        <v>-0.206206080419747</v>
+      </c>
+      <c r="F7">
+        <v>-1.134156075688346</v>
+      </c>
+      <c r="G7">
+        <v>-0.05037399229676809</v>
+      </c>
+      <c r="H7">
+        <v>-0.6109194068361889</v>
+      </c>
+      <c r="I7">
+        <v>-0.7919758789883469</v>
+      </c>
+      <c r="J7">
+        <v>-0.3991400005203261</v>
+      </c>
+      <c r="K7">
+        <v>0.5775657064437687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1.067164997775827</v>
+      </c>
+      <c r="C8">
+        <v>-1.224747629444593</v>
+      </c>
+      <c r="D8">
+        <v>-1.770230220584354</v>
+      </c>
+      <c r="E8">
+        <v>-0.5382100178934185</v>
+      </c>
+      <c r="F8">
+        <v>-1.000650188286245</v>
+      </c>
+      <c r="G8">
+        <v>-1.133847302493904</v>
+      </c>
+      <c r="H8">
+        <v>-0.7134676109512715</v>
+      </c>
+      <c r="I8">
+        <v>0.2776912485262077</v>
+      </c>
+      <c r="J8">
+        <v>-0.3722479486680057</v>
+      </c>
+      <c r="K8">
+        <v>0.2564720394893355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-1.127103034065961</v>
+      </c>
+      <c r="C9">
+        <v>-0.1878948902973137</v>
+      </c>
+      <c r="D9">
+        <v>-0.7287853850614786</v>
+      </c>
+      <c r="E9">
+        <v>-0.9325540502953606</v>
+      </c>
+      <c r="F9">
+        <v>-0.5410106903318013</v>
+      </c>
+      <c r="G9">
+        <v>0.4311715719365074</v>
+      </c>
+      <c r="H9">
+        <v>-0.2279758073918972</v>
+      </c>
+      <c r="I9">
+        <v>0.3953488303588462</v>
+      </c>
+      <c r="J9">
+        <v>-0.481407427764631</v>
+      </c>
+      <c r="K9">
+        <v>0.8178994373833802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.3661884173476408</v>
+      </c>
+      <c r="C10">
+        <v>-0.568882371030061</v>
+      </c>
+      <c r="D10">
+        <v>-0.3478032540441032</v>
+      </c>
+      <c r="E10">
+        <v>0.5874455436485277</v>
+      </c>
+      <c r="F10">
+        <v>-0.1115623188329788</v>
+      </c>
+      <c r="G10">
+        <v>0.4961859877850945</v>
+      </c>
+      <c r="H10">
+        <v>-0.391402824296023</v>
+      </c>
+      <c r="I10">
+        <v>0.9026371826652611</v>
+      </c>
+      <c r="J10">
+        <v>0.8349399537858985</v>
+      </c>
+      <c r="K10">
+        <v>-1.495092865066712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.3135691072467441</v>
+      </c>
+      <c r="C11">
+        <v>0.6516312662844337</v>
+      </c>
+      <c r="D11">
+        <v>-0.1062831928060719</v>
+      </c>
+      <c r="E11">
+        <v>0.4941656593555646</v>
+      </c>
+      <c r="F11">
+        <v>-0.4058692856850591</v>
+      </c>
+      <c r="G11">
+        <v>0.8841166788927556</v>
+      </c>
+      <c r="H11">
+        <v>0.8132432435206727</v>
+      </c>
+      <c r="I11">
+        <v>-1.518227975114049</v>
+      </c>
+      <c r="J11">
+        <v>0.5709347050921221</v>
+      </c>
+      <c r="K11">
+        <v>-1.428504153616746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.1049084863453</v>
+      </c>
+      <c r="C12">
+        <v>0.6086847400557656</v>
+      </c>
+      <c r="D12">
+        <v>-0.3342205466225001</v>
+      </c>
+      <c r="E12">
+        <v>0.9281700346720745</v>
+      </c>
+      <c r="F12">
+        <v>0.8431457429031994</v>
+      </c>
+      <c r="G12">
+        <v>-1.496628745888607</v>
+      </c>
+      <c r="H12">
+        <v>0.5880428169063596</v>
+      </c>
+      <c r="I12">
+        <v>-1.413946282188658</v>
+      </c>
+      <c r="J12">
+        <v>0.08878384177577425</v>
+      </c>
+      <c r="K12">
+        <v>-1.009569804035222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.468706437862887</v>
+      </c>
+      <c r="C13">
+        <v>0.9039672510431445</v>
+      </c>
+      <c r="D13">
+        <v>0.8158253868570103</v>
+      </c>
+      <c r="E13">
+        <v>-1.504258706563356</v>
+      </c>
+      <c r="F13">
+        <v>0.5842421290006508</v>
+      </c>
+      <c r="G13">
+        <v>-1.413250027290265</v>
+      </c>
+      <c r="H13">
+        <v>0.09119419113421556</v>
+      </c>
+      <c r="I13">
+        <v>-1.005944577340331</v>
+      </c>
+      <c r="J13">
+        <v>2.078401768593686</v>
+      </c>
+      <c r="K13">
+        <v>-0.7266373681968136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.8297497590861679</v>
+      </c>
+      <c r="C14">
+        <v>-1.424315544009337</v>
+      </c>
+      <c r="D14">
+        <v>0.6079293065118736</v>
+      </c>
+      <c r="E14">
+        <v>-1.389499039176236</v>
+      </c>
+      <c r="F14">
+        <v>0.1045720885925047</v>
+      </c>
+      <c r="G14">
+        <v>-0.9947907934950116</v>
+      </c>
+      <c r="H14">
+        <v>2.087160925775358</v>
+      </c>
+      <c r="I14">
+        <v>-0.7188050190895564</v>
+      </c>
+      <c r="J14">
+        <v>-0.3094740091684517</v>
+      </c>
+      <c r="K14">
+        <v>0.2556233816079938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.1999639352836084</v>
+      </c>
+      <c r="C15">
+        <v>-1.692243452091037</v>
+      </c>
+      <c r="D15">
+        <v>-0.08243645747831274</v>
+      </c>
+      <c r="E15">
+        <v>-1.137082124191378</v>
+      </c>
+      <c r="F15">
+        <v>1.976229586093048</v>
+      </c>
+      <c r="G15">
+        <v>-0.8145800155469414</v>
+      </c>
+      <c r="H15">
+        <v>-0.396095420599778</v>
+      </c>
+      <c r="I15">
+        <v>0.1738205845458479</v>
+      </c>
+      <c r="J15">
+        <v>0.2109884819545781</v>
+      </c>
+      <c r="K15">
+        <v>1.186405250776313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.2444320213261313</v>
+      </c>
+      <c r="C16">
+        <v>-1.091853705097495</v>
+      </c>
+      <c r="D16">
+        <v>2.081294072962891</v>
+      </c>
+      <c r="E16">
+        <v>-0.750186528942369</v>
+      </c>
+      <c r="F16">
+        <v>-0.329060906378975</v>
+      </c>
+      <c r="G16">
+        <v>0.2336949708814706</v>
+      </c>
+      <c r="H16">
+        <v>0.2698285643638262</v>
+      </c>
+      <c r="I16">
+        <v>1.243663333455389</v>
+      </c>
+      <c r="J16">
+        <v>0.9012299047108381</v>
+      </c>
+      <c r="K16">
+        <v>-0.3020408032097104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>2.357444689464909</v>
+      </c>
+      <c r="C17">
+        <v>-0.732245583507259</v>
+      </c>
+      <c r="D17">
+        <v>-0.282495925965299</v>
+      </c>
+      <c r="E17">
+        <v>0.2243283929298281</v>
+      </c>
+      <c r="F17">
+        <v>0.2588138527692347</v>
+      </c>
+      <c r="G17">
+        <v>1.219473905323812</v>
+      </c>
+      <c r="H17">
+        <v>0.8746758066796412</v>
+      </c>
+      <c r="I17">
+        <v>-0.331983780066458</v>
+      </c>
+      <c r="J17">
+        <v>2.538964625266059</v>
+      </c>
+      <c r="K17">
+        <v>16.96373609713402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.5550224296269219</v>
+      </c>
+      <c r="C18">
+        <v>-0.08270464267015498</v>
+      </c>
+      <c r="D18">
+        <v>0.3053676998005983</v>
+      </c>
+      <c r="E18">
+        <v>0.326519757059067</v>
+      </c>
+      <c r="F18">
+        <v>1.258716825248371</v>
+      </c>
+      <c r="G18">
+        <v>0.9065560396152303</v>
+      </c>
+      <c r="H18">
+        <v>-0.3075683904650559</v>
+      </c>
+      <c r="I18">
+        <v>2.56058995656679</v>
+      </c>
+      <c r="J18">
+        <v>16.98327123593844</v>
+      </c>
+      <c r="K18">
+        <v>-7.013295712094065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.5323901669713516</v>
+      </c>
+      <c r="C19">
+        <v>-0.3173522977745656</v>
+      </c>
+      <c r="D19">
+        <v>0.05208023261138728</v>
+      </c>
+      <c r="E19">
+        <v>0.9991011377058669</v>
+      </c>
+      <c r="F19">
+        <v>0.7214238038270346</v>
+      </c>
+      <c r="G19">
+        <v>-0.4786972560525239</v>
+      </c>
+      <c r="H19">
+        <v>2.407005686963492</v>
+      </c>
+      <c r="I19">
+        <v>16.83519105900099</v>
+      </c>
+      <c r="J19">
+        <v>-7.156908461513627</v>
+      </c>
+      <c r="K19">
+        <v>-1.304212576887955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.01747906076259709</v>
+      </c>
+      <c r="C20">
+        <v>0.325791487310068</v>
+      </c>
+      <c r="D20">
+        <v>1.136335388638962</v>
+      </c>
+      <c r="E20">
+        <v>0.8291858963044396</v>
+      </c>
+      <c r="F20">
+        <v>-0.4034648218840479</v>
+      </c>
+      <c r="G20">
+        <v>2.472038317693857</v>
+      </c>
+      <c r="H20">
+        <v>16.89208925287279</v>
+      </c>
+      <c r="I20">
+        <v>-7.103162416772058</v>
+      </c>
+      <c r="J20">
+        <v>-1.252573326410322</v>
+      </c>
+      <c r="K20">
+        <v>1.851184235742179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.326882486427275</v>
+      </c>
+      <c r="C21">
+        <v>1.227065812513619</v>
+      </c>
+      <c r="D21">
+        <v>0.8231650825891843</v>
+      </c>
+      <c r="E21">
+        <v>-0.402134558042931</v>
+      </c>
+      <c r="F21">
+        <v>2.455378142772866</v>
+      </c>
+      <c r="G21">
+        <v>16.87501669746343</v>
+      </c>
+      <c r="H21">
+        <v>-7.123755514369134</v>
+      </c>
+      <c r="I21">
+        <v>-1.273598624229052</v>
+      </c>
+      <c r="J21">
+        <v>1.82943713324947</v>
+      </c>
+      <c r="K21">
+        <v>-2.034050085468873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1.150793573282811</v>
+      </c>
+      <c r="C22">
+        <v>0.7284642129470578</v>
+      </c>
+      <c r="D22">
+        <v>-0.4582746601593957</v>
+      </c>
+      <c r="E22">
+        <v>2.400980361362701</v>
+      </c>
+      <c r="F22">
+        <v>16.82818384421024</v>
+      </c>
+      <c r="G22">
+        <v>-7.169229930957163</v>
+      </c>
+      <c r="H22">
+        <v>-1.317451635367956</v>
+      </c>
+      <c r="I22">
+        <v>1.786062001034305</v>
+      </c>
+      <c r="J22">
+        <v>-2.07705257007032</v>
+      </c>
+      <c r="K22">
+        <v>0.3633367468314175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.7102171877794077</v>
+      </c>
+      <c r="C23">
+        <v>-0.4830306917594147</v>
+      </c>
+      <c r="D23">
+        <v>2.405171545803162</v>
+      </c>
+      <c r="E23">
+        <v>16.83484099253249</v>
+      </c>
+      <c r="F23">
+        <v>-7.156820695770811</v>
+      </c>
+      <c r="G23">
+        <v>-1.30384594965314</v>
+      </c>
+      <c r="H23">
+        <v>1.800900908416289</v>
+      </c>
+      <c r="I23">
+        <v>-2.061831623283174</v>
+      </c>
+      <c r="J23">
+        <v>0.3788381389406285</v>
+      </c>
+      <c r="K23">
+        <v>0.1611678205046922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.5518158306977698</v>
+      </c>
+      <c r="C24">
+        <v>2.191560135286637</v>
+      </c>
+      <c r="D24">
+        <v>16.80516807813639</v>
+      </c>
+      <c r="E24">
+        <v>-7.193652847089544</v>
+      </c>
+      <c r="F24">
+        <v>-1.303860790082196</v>
+      </c>
+      <c r="G24">
+        <v>1.803923336011677</v>
+      </c>
+      <c r="H24">
+        <v>-2.050893233001351</v>
+      </c>
+      <c r="I24">
+        <v>0.3913667245265824</v>
+      </c>
+      <c r="J24">
+        <v>0.1755128226312306</v>
+      </c>
+      <c r="K24">
+        <v>2.188985690010757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2.089157568705751</v>
+      </c>
+      <c r="C25">
+        <v>16.60688259526341</v>
+      </c>
+      <c r="D25">
+        <v>-7.290126170382794</v>
+      </c>
+      <c r="E25">
+        <v>-1.406267300345741</v>
+      </c>
+      <c r="F25">
+        <v>1.722034147016102</v>
+      </c>
+      <c r="G25">
+        <v>-2.131180455454951</v>
+      </c>
+      <c r="H25">
+        <v>0.3155989249401384</v>
+      </c>
+      <c r="I25">
+        <v>0.1007049457452194</v>
+      </c>
+      <c r="J25">
+        <v>2.115256271054485</v>
+      </c>
+      <c r="K25">
+        <v>-1.009919017664734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>16.65561624879756</v>
+      </c>
+      <c r="C26">
+        <v>-7.111692647758776</v>
+      </c>
+      <c r="D26">
+        <v>-1.352928785598369</v>
+      </c>
+      <c r="E26">
+        <v>1.782292834937736</v>
+      </c>
+      <c r="F26">
+        <v>-2.094488525141215</v>
+      </c>
+      <c r="G26">
+        <v>0.3501479672188517</v>
+      </c>
+      <c r="H26">
+        <v>0.1303028711156069</v>
+      </c>
+      <c r="I26">
+        <v>2.143696465361422</v>
+      </c>
+      <c r="J26">
+        <v>-0.9826241088910329</v>
+      </c>
+      <c r="K26">
+        <v>0.5873947004955775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-7.760163528514655</v>
+      </c>
+      <c r="C27">
+        <v>-1.972704931650399</v>
+      </c>
+      <c r="D27">
+        <v>1.484331644698993</v>
+      </c>
+      <c r="E27">
+        <v>-2.337633035000795</v>
+      </c>
+      <c r="F27">
+        <v>0.1799574474777199</v>
+      </c>
+      <c r="G27">
+        <v>-0.01776265254705356</v>
+      </c>
+      <c r="H27">
+        <v>2.013647994976054</v>
+      </c>
+      <c r="I27">
+        <v>-1.105484592946542</v>
+      </c>
+      <c r="J27">
+        <v>0.4692466839748882</v>
+      </c>
+      <c r="K27">
+        <v>2.685253770416337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-5.963582739262892</v>
+      </c>
+      <c r="C28">
+        <v>3.492658323703342</v>
+      </c>
+      <c r="D28">
+        <v>-3.559819318210363</v>
+      </c>
+      <c r="E28">
+        <v>0.5693963315123343</v>
+      </c>
+      <c r="F28">
+        <v>-0.5063149725097174</v>
+      </c>
+      <c r="G28">
+        <v>1.956666122262014</v>
+      </c>
+      <c r="H28">
+        <v>-1.399630449947365</v>
+      </c>
+      <c r="I28">
+        <v>0.2904905967165777</v>
+      </c>
+      <c r="J28">
+        <v>2.4426464130219</v>
+      </c>
+      <c r="K28">
+        <v>1.888155127428016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>1.422576334232133</v>
+      </c>
+      <c r="C29">
+        <v>-2.229440335207585</v>
+      </c>
+      <c r="D29">
+        <v>0.2263850154571423</v>
+      </c>
+      <c r="E29">
+        <v>0.004277005772430398</v>
+      </c>
+      <c r="F29">
+        <v>2.017152323015797</v>
+      </c>
+      <c r="G29">
+        <v>-1.10876341243032</v>
+      </c>
+      <c r="H29">
+        <v>0.4611974023810894</v>
+      </c>
+      <c r="I29">
+        <v>2.675099656673058</v>
+      </c>
+      <c r="J29">
+        <v>2.08850208864409</v>
+      </c>
+      <c r="K29">
+        <v>0.4783958115752514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-2.142663094158286</v>
+      </c>
+      <c r="C30">
+        <v>0.4385193315893903</v>
+      </c>
+      <c r="D30">
+        <v>0.09765756145592042</v>
+      </c>
+      <c r="E30">
+        <v>2.112943080692172</v>
+      </c>
+      <c r="F30">
+        <v>-1.005392272376616</v>
+      </c>
+      <c r="G30">
+        <v>0.5637091730102772</v>
+      </c>
+      <c r="H30">
+        <v>2.777202910646966</v>
+      </c>
+      <c r="I30">
+        <v>2.190698416648519</v>
+      </c>
+      <c r="J30">
+        <v>0.5806096851940874</v>
+      </c>
+      <c r="K30">
+        <v>0.09153944279840598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0.1380740293107934</v>
+      </c>
+      <c r="C31">
+        <v>0.3704645608741375</v>
+      </c>
+      <c r="D31">
+        <v>2.383384680050185</v>
+      </c>
+      <c r="E31">
+        <v>-0.7585588244579131</v>
+      </c>
+      <c r="F31">
+        <v>0.8142944220642478</v>
+      </c>
+      <c r="G31">
+        <v>3.028239824838831</v>
+      </c>
+      <c r="H31">
+        <v>2.441532159174244</v>
+      </c>
+      <c r="I31">
+        <v>0.8314442960296049</v>
+      </c>
+      <c r="J31">
+        <v>0.3423822026949559</v>
+      </c>
+      <c r="K31">
+        <v>2.344058366549328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.3869591439271836</v>
+      </c>
+      <c r="C32">
+        <v>2.319295427005476</v>
+      </c>
+      <c r="D32">
+        <v>-0.7984860453406349</v>
+      </c>
+      <c r="E32">
+        <v>0.7707658969681049</v>
+      </c>
+      <c r="F32">
+        <v>2.984723188308192</v>
+      </c>
+      <c r="G32">
+        <v>2.39812197981083</v>
+      </c>
+      <c r="H32">
+        <v>0.7880158731308999</v>
+      </c>
+      <c r="I32">
+        <v>0.2989532158504153</v>
+      </c>
+      <c r="J32">
+        <v>2.300630133237325</v>
+      </c>
+      <c r="K32">
+        <v>1.05988638520051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>2.427055685810461</v>
+      </c>
+      <c r="C33">
+        <v>-0.8009149136723334</v>
+      </c>
+      <c r="D33">
+        <v>0.7696954787721907</v>
+      </c>
+      <c r="E33">
+        <v>2.987001444775585</v>
+      </c>
+      <c r="F33">
+        <v>2.399886253228498</v>
+      </c>
+      <c r="G33">
+        <v>0.7897386326780127</v>
+      </c>
+      <c r="H33">
+        <v>0.300699740732756</v>
+      </c>
+      <c r="I33">
+        <v>2.302374616818379</v>
+      </c>
+      <c r="J33">
+        <v>1.061630351210087</v>
+      </c>
+      <c r="K33">
+        <v>0.1217687626484084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>-0.650174915046223</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>0.830892166578902</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>2.949288858969858</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>2.380954587752795</v>
+      </c>
+      <c r="F34">
+        <v>0.7723030187048723</v>
+      </c>
+      <c r="G34">
+        <v>0.2822186379365156</v>
+      </c>
+      <c r="H34">
+        <v>2.283985151195001</v>
+      </c>
+      <c r="I34">
+        <v>1.043272865012721</v>
+      </c>
+      <c r="J34">
+        <v>0.1034024627365125</v>
+      </c>
+      <c r="K34">
+        <v>1.211994702249501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>0.5428020203699957</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>2.920037488729503</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>2.330884745703262</v>
+      </c>
+      <c r="E35">
+        <v>0.7169599276919421</v>
+      </c>
+      <c r="F35">
+        <v>0.2286531501142008</v>
+      </c>
+      <c r="G35">
+        <v>2.230293745174312</v>
+      </c>
+      <c r="H35">
+        <v>0.9895367454277643</v>
+      </c>
+      <c r="I35">
+        <v>0.04967835405015442</v>
+      </c>
+      <c r="J35">
+        <v>1.158270418349721</v>
+      </c>
+      <c r="K35">
+        <v>0.5885149887775344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>2.992648702939084</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>2.300352866574237</v>
+      </c>
+      <c r="D36">
+        <v>0.6871053639263649</v>
+      </c>
+      <c r="E36">
+        <v>0.2017735519033629</v>
+      </c>
+      <c r="F36">
+        <v>2.20283871490037</v>
+      </c>
+      <c r="G36">
+        <v>0.9620998292082691</v>
+      </c>
+      <c r="H36">
+        <v>0.02225533421742021</v>
+      </c>
+      <c r="I36">
+        <v>1.130844252519133</v>
+      </c>
+      <c r="J36">
+        <v>0.5610889955136454</v>
+      </c>
+      <c r="K36">
+        <v>0.9022266013952623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>2.794158013065459</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>0.7059782038567191</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>0.1551536600860205</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>2.191682961390041</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>0.9467942632767605</v>
+      </c>
+      <c r="G37">
+        <v>0.00613763004306056</v>
+      </c>
+      <c r="H37">
+        <v>1.115084499546823</v>
+      </c>
+      <c r="I37">
+        <v>0.5452947454358625</v>
+      </c>
+      <c r="J37">
+        <v>0.8864226138841197</v>
+      </c>
+      <c r="K37">
+        <v>0.8072692701606752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>1.119418417829436</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>0.1156443893295904</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>2.087783847493114</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>0.8766815709285666</v>
+      </c>
+      <c r="F38">
+        <v>-0.06743754196721563</v>
+      </c>
+      <c r="G38">
+        <v>1.040580712794053</v>
+      </c>
+      <c r="H38">
+        <v>0.4711332001653794</v>
+      </c>
+      <c r="I38">
+        <v>0.8122389853160419</v>
+      </c>
+      <c r="J38">
+        <v>0.7330737473378889</v>
+      </c>
+      <c r="K38">
+        <v>0.534247480256173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.2611631433118839</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>2.080764633212284</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>0.8412435774606269</v>
+      </c>
+      <c r="E39">
+        <v>-0.09112159910259898</v>
+      </c>
+      <c r="F39">
+        <v>1.016059141260885</v>
+      </c>
+      <c r="G39">
+        <v>0.4462420043477681</v>
+      </c>
+      <c r="H39">
+        <v>0.7874505722952686</v>
+      </c>
+      <c r="I39">
+        <v>0.7082834014682755</v>
+      </c>
+      <c r="J39">
+        <v>0.5094529188569945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>2.091588404539168</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>0.8052591246372691</v>
+      </c>
+      <c r="D40">
+        <v>-0.1304910489957294</v>
+      </c>
+      <c r="E40">
+        <v>0.9793737218907301</v>
+      </c>
+      <c r="F40">
+        <v>0.409213227481624</v>
+      </c>
+      <c r="G40">
+        <v>0.7503665359279048</v>
+      </c>
+      <c r="H40">
+        <v>0.6712246084039694</v>
+      </c>
+      <c r="I40">
+        <v>0.4723919369885569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>1.084474727530034</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>-0.2141644380367789</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.8870512497920024</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>0.3281561746780989</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>0.667810470134707</v>
+      </c>
+      <c r="G41">
+        <v>0.5885892822228219</v>
+      </c>
+      <c r="H41">
+        <v>0.3898100828494207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.09099700375667652</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.8657960198576775</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>0.302932487019591</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>0.6457814005067818</v>
+      </c>
+      <c r="F42">
+        <v>0.5662525759626658</v>
+      </c>
+      <c r="G42">
+        <v>0.3674467125039105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.8981794329520691</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>0.3559178437654984</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>0.6981109782470681</v>
+      </c>
+      <c r="E43">
+        <v>0.6180757560744174</v>
+      </c>
+      <c r="F43">
+        <v>0.4193590614173677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.5090689742288268</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>0.6835102372417342</v>
+      </c>
+      <c r="D44">
+        <v>0.6042456057921061</v>
+      </c>
+      <c r="E44">
+        <v>0.4096013189004131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.8081920207483597</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>0.6464167531449305</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>0.4452091955240907</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.7700312829900747</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>0.4504122884293594</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.4884023099363324</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-1.21261570423489</v>
-      </c>
-      <c r="C2">
-        <v>1.632067989802498</v>
-      </c>
-      <c r="D2">
-        <v>-0.4124837060876161</v>
-      </c>
-      <c r="E2">
-        <v>-1.479929743355211</v>
-      </c>
-      <c r="F2">
-        <v>-1.592402663489404</v>
-      </c>
-      <c r="G2">
-        <v>1.908948722932154</v>
-      </c>
-      <c r="H2">
-        <v>1.001805208711243</v>
-      </c>
-      <c r="I2">
-        <v>-1.203860557869805</v>
-      </c>
-      <c r="J2">
-        <v>-0.03543530930946104</v>
-      </c>
-      <c r="K2">
-        <v>2.321787597043024</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>1.086260191024438</v>
-      </c>
-      <c r="C3">
-        <v>-1.178127756602874</v>
-      </c>
-      <c r="D3">
-        <v>-1.032217798256341</v>
-      </c>
-      <c r="E3">
-        <v>2.232420503100754</v>
-      </c>
-      <c r="F3">
-        <v>1.363452856891491</v>
-      </c>
-      <c r="G3">
-        <v>-0.895976054328</v>
-      </c>
-      <c r="H3">
-        <v>0.278631581920374</v>
-      </c>
-      <c r="I3">
-        <v>2.622868572588569</v>
-      </c>
-      <c r="J3">
-        <v>3.403698195656406</v>
-      </c>
-      <c r="K3">
-        <v>-0.6330722925229448</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-1.473891622311675</v>
-      </c>
-      <c r="C4">
-        <v>1.959685852408036</v>
-      </c>
-      <c r="D4">
-        <v>1.116497560825547</v>
-      </c>
-      <c r="E4">
-        <v>-1.108178211550528</v>
-      </c>
-      <c r="F4">
-        <v>0.08119296701317502</v>
-      </c>
-      <c r="G4">
-        <v>2.435390810007719</v>
-      </c>
-      <c r="H4">
-        <v>3.221494636096438</v>
-      </c>
-      <c r="I4">
-        <v>-0.812158915672121</v>
-      </c>
-      <c r="J4">
-        <v>0.3089130689102473</v>
-      </c>
-      <c r="K4">
-        <v>-0.164828424642083</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>1.854392007526457</v>
-      </c>
-      <c r="C5">
-        <v>-0.584717462988765</v>
-      </c>
-      <c r="D5">
-        <v>0.416791909106992</v>
-      </c>
-      <c r="E5">
-        <v>2.687500306359277</v>
-      </c>
-      <c r="F5">
-        <v>3.419140187987452</v>
-      </c>
-      <c r="G5">
-        <v>-0.642690272053984</v>
-      </c>
-      <c r="H5">
-        <v>0.4617071855093173</v>
-      </c>
-      <c r="I5">
-        <v>-0.02113863128446702</v>
-      </c>
-      <c r="J5">
-        <v>-0.949593158490375</v>
-      </c>
-      <c r="K5">
-        <v>0.136779879699706</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>-0.5235396164696122</v>
-      </c>
-      <c r="C6">
-        <v>2.076287340715421</v>
-      </c>
-      <c r="D6">
-        <v>2.998551812989357</v>
-      </c>
-      <c r="E6">
-        <v>-0.9648805778427647</v>
-      </c>
-      <c r="F6">
-        <v>0.1938960015613151</v>
-      </c>
-      <c r="G6">
-        <v>-0.2600515096793881</v>
-      </c>
-      <c r="H6">
-        <v>-1.172773061008624</v>
-      </c>
-      <c r="I6">
-        <v>-0.077946247163865</v>
-      </c>
-      <c r="J6">
-        <v>-0.633602452107352</v>
-      </c>
-      <c r="K6">
-        <v>-0.8117578568590649</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.361103514181762</v>
+        <v>-7.05089396092515</v>
       </c>
       <c r="C7">
-        <v>-0.831626124351093</v>
+        <v>0.4951640574233429</v>
       </c>
       <c r="D7">
-        <v>0.2938753184617562</v>
+        <v>0.2540629411565589</v>
       </c>
       <c r="E7">
-        <v>-0.206206080419747</v>
+        <v>-0.05146028044184114</v>
       </c>
       <c r="F7">
-        <v>-1.134156075688346</v>
+        <v>-1.840779753730213</v>
       </c>
       <c r="G7">
-        <v>-0.05037399229676809</v>
+        <v>-1.52252283582352</v>
       </c>
       <c r="H7">
-        <v>-0.6109194068361889</v>
+        <v>1.812171342946396</v>
       </c>
       <c r="I7">
-        <v>-0.7919758789883469</v>
+        <v>1.012837043967661</v>
       </c>
       <c r="J7">
-        <v>-0.3991400005203261</v>
+        <v>-1.230529537544581</v>
       </c>
       <c r="K7">
-        <v>0.5775657064437687</v>
+        <v>-0.03474865260855897</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.067164997775827</v>
+        <v>1.752806838268613</v>
       </c>
       <c r="C8">
-        <v>-1.224747629444593</v>
+        <v>0.250341706310496</v>
       </c>
       <c r="D8">
-        <v>-1.770230220584354</v>
+        <v>-1.28059488849715</v>
       </c>
       <c r="E8">
-        <v>-0.5382100178934185</v>
+        <v>-1.19905105565492</v>
       </c>
       <c r="F8">
-        <v>-1.000650188286245</v>
+        <v>2.173818991126645</v>
       </c>
       <c r="G8">
-        <v>-1.133847302493904</v>
+        <v>1.320721547509466</v>
       </c>
       <c r="H8">
-        <v>-0.7134676109512715</v>
+        <v>-0.9164626463147461</v>
       </c>
       <c r="I8">
-        <v>0.2776912485262077</v>
+        <v>0.2663323229369861</v>
       </c>
       <c r="J8">
-        <v>-0.3722479486680057</v>
+        <v>2.616359308193534</v>
       </c>
       <c r="K8">
-        <v>0.2564720394893355</v>
+        <v>3.400006620178971</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.127103034065961</v>
+        <v>-1.722268712552484</v>
       </c>
       <c r="C9">
-        <v>-0.1878948902973137</v>
+        <v>-1.471785706347638</v>
       </c>
       <c r="D9">
-        <v>-0.7287853850614786</v>
+        <v>1.926863695060699</v>
       </c>
       <c r="E9">
-        <v>-0.9325540502953606</v>
+        <v>1.108519390286938</v>
       </c>
       <c r="F9">
-        <v>-0.5410106903318013</v>
+        <v>-1.113901261221945</v>
       </c>
       <c r="G9">
-        <v>0.4311715719365074</v>
+        <v>0.07885456035613592</v>
       </c>
       <c r="H9">
-        <v>-0.2279758073918972</v>
+        <v>2.434155748633566</v>
       </c>
       <c r="I9">
-        <v>0.3953488303588462</v>
+        <v>3.220919997029795</v>
       </c>
       <c r="J9">
-        <v>-0.481407427764631</v>
+        <v>-0.8124429726419709</v>
       </c>
       <c r="K9">
-        <v>0.8178994373833802</v>
+        <v>0.3087767258885332</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.3661884173476408</v>
+        <v>2.66475814176161</v>
       </c>
       <c r="C10">
-        <v>-0.568882371030061</v>
+        <v>1.631980138848701</v>
       </c>
       <c r="D10">
-        <v>-0.3478032540441032</v>
+        <v>-0.778302319128128</v>
       </c>
       <c r="E10">
-        <v>0.5874455436485277</v>
+        <v>0.3309640567076939</v>
       </c>
       <c r="F10">
-        <v>-0.1115623188329788</v>
+        <v>2.63180130052458</v>
       </c>
       <c r="G10">
-        <v>0.4961859877850945</v>
+        <v>3.390388640647932</v>
       </c>
       <c r="H10">
-        <v>-0.391402824296023</v>
+        <v>-0.6596488560429008</v>
       </c>
       <c r="I10">
-        <v>0.9026371826652611</v>
+        <v>0.4524665192461492</v>
       </c>
       <c r="J10">
-        <v>0.8349399537858985</v>
+        <v>-0.02641388040788906</v>
       </c>
       <c r="K10">
-        <v>-1.495092865066712</v>
+        <v>-0.9525228067123199</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.3135691072467441</v>
+        <v>-1.718633844704732</v>
       </c>
       <c r="C11">
-        <v>0.6516312662844337</v>
+        <v>-0.2802489089361619</v>
       </c>
       <c r="D11">
-        <v>-0.1062831928060719</v>
+        <v>2.211212925526485</v>
       </c>
       <c r="E11">
-        <v>0.4941656593555646</v>
+        <v>3.068198334859151</v>
       </c>
       <c r="F11">
-        <v>-0.4058692856850591</v>
+        <v>-0.927460039990903</v>
       </c>
       <c r="G11">
-        <v>0.8841166788927556</v>
+        <v>0.2135536408512282</v>
       </c>
       <c r="H11">
-        <v>0.8132432435206727</v>
+        <v>-0.2495937829261381</v>
       </c>
       <c r="I11">
-        <v>-1.518227975114049</v>
+        <v>-1.167248933575891</v>
       </c>
       <c r="J11">
-        <v>0.5709347050921221</v>
+        <v>-0.07501658794883515</v>
       </c>
       <c r="K11">
-        <v>-1.428504153616746</v>
+        <v>-0.6320522035438838</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1049084863453</v>
+        <v>2.57376462671889</v>
       </c>
       <c r="C12">
-        <v>0.6086847400557656</v>
+        <v>3.201452788350823</v>
       </c>
       <c r="D12">
-        <v>-0.3342205466225001</v>
+        <v>-0.8274807230904619</v>
       </c>
       <c r="E12">
-        <v>0.9281700346720745</v>
+        <v>0.2673990701108693</v>
       </c>
       <c r="F12">
-        <v>0.8431457429031994</v>
+        <v>-0.2109767976058601</v>
       </c>
       <c r="G12">
-        <v>-1.496628745888607</v>
+        <v>-1.139676678708794</v>
       </c>
       <c r="H12">
-        <v>0.5880428169063596</v>
+        <v>-0.0523335426776721</v>
       </c>
       <c r="I12">
-        <v>-1.413946282188658</v>
+        <v>-0.6122702256731658</v>
       </c>
       <c r="J12">
-        <v>0.08878384177577425</v>
+        <v>-0.7925909935379489</v>
       </c>
       <c r="K12">
-        <v>-1.009569804035222</v>
+        <v>-0.3994986046346392</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.468706437862887</v>
+        <v>-2.188521039328045</v>
       </c>
       <c r="C13">
-        <v>0.9039672510431445</v>
+        <v>-0.7511424789139769</v>
       </c>
       <c r="D13">
-        <v>0.8158253868570103</v>
+        <v>-0.8470509425018682</v>
       </c>
       <c r="E13">
-        <v>-1.504258706563356</v>
+        <v>-1.627512704305444</v>
       </c>
       <c r="F13">
-        <v>0.5842421290006508</v>
+        <v>-0.4420643241277283</v>
       </c>
       <c r="G13">
-        <v>-1.413250027290265</v>
+        <v>-0.9541416491787224</v>
       </c>
       <c r="H13">
-        <v>0.09119419113421556</v>
+        <v>-1.106918603968894</v>
       </c>
       <c r="I13">
-        <v>-1.005944577340331</v>
+        <v>-0.6993730625522002</v>
       </c>
       <c r="J13">
-        <v>2.078401768593686</v>
+        <v>0.2854910704126311</v>
       </c>
       <c r="K13">
-        <v>-0.7266373681968136</v>
+        <v>-0.36806359050384</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.8297497590861679</v>
+        <v>-0.203923755983475</v>
       </c>
       <c r="C14">
-        <v>-1.424315544009337</v>
+        <v>-1.27719757670934</v>
       </c>
       <c r="D14">
-        <v>0.6079293065118736</v>
+        <v>-0.1701995209029618</v>
       </c>
       <c r="E14">
-        <v>-1.389499039176236</v>
+        <v>-0.7528483969801796</v>
       </c>
       <c r="F14">
-        <v>0.1045720885925047</v>
+        <v>-0.9344616833494241</v>
       </c>
       <c r="G14">
-        <v>-0.9947907934950116</v>
+        <v>-0.5458927391419005</v>
       </c>
       <c r="H14">
-        <v>2.087160925775358</v>
+        <v>0.4297632116887396</v>
       </c>
       <c r="I14">
-        <v>-0.7188050190895564</v>
+        <v>-0.2291867996343293</v>
       </c>
       <c r="J14">
-        <v>-0.3094740091684517</v>
+        <v>0.3948257586456296</v>
       </c>
       <c r="K14">
-        <v>0.2556233816079938</v>
+        <v>-0.4817453202244423</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1999639352836084</v>
+        <v>0.192397446810876</v>
       </c>
       <c r="C15">
-        <v>-1.692243452091037</v>
+        <v>-0.3891767177148799</v>
       </c>
       <c r="D15">
-        <v>-0.08243645747831274</v>
+        <v>-0.741254247061726</v>
       </c>
       <c r="E15">
-        <v>-1.137082124191378</v>
+        <v>-0.3896187674298801</v>
       </c>
       <c r="F15">
-        <v>1.976229586093048</v>
+        <v>0.5461767002476579</v>
       </c>
       <c r="G15">
-        <v>-0.8145800155469414</v>
+        <v>-0.128349642208081</v>
       </c>
       <c r="H15">
-        <v>-0.396095420599778</v>
+        <v>0.4848303621142376</v>
       </c>
       <c r="I15">
-        <v>0.1738205845458479</v>
+        <v>-0.3970075749425614</v>
       </c>
       <c r="J15">
-        <v>0.2109884819545781</v>
+        <v>0.8992979949927146</v>
       </c>
       <c r="K15">
-        <v>1.186405250776313</v>
+        <v>0.8331671283926859</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2444320213261313</v>
+        <v>-0.707020100264367</v>
       </c>
       <c r="C16">
-        <v>-1.091853705097495</v>
+        <v>-0.3254330447939742</v>
       </c>
       <c r="D16">
-        <v>2.081294072962891</v>
+        <v>0.5514558262745648</v>
       </c>
       <c r="E16">
-        <v>-0.750186528942369</v>
+        <v>-0.1303699706376109</v>
       </c>
       <c r="F16">
-        <v>-0.329060906378975</v>
+        <v>0.4703639007252015</v>
       </c>
       <c r="G16">
-        <v>0.2336949708814706</v>
+        <v>-0.4155280787150669</v>
       </c>
       <c r="H16">
-        <v>0.2698285643638262</v>
+        <v>0.8776012847274888</v>
       </c>
       <c r="I16">
-        <v>1.243663333455389</v>
+        <v>0.810032018345348</v>
       </c>
       <c r="J16">
-        <v>0.9012299047108381</v>
+        <v>-1.520135436580949</v>
       </c>
       <c r="K16">
-        <v>-0.3020408032097104</v>
+        <v>0.5699236114092057</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2.357444689464909</v>
+        <v>0.7626475054259367</v>
       </c>
       <c r="C17">
-        <v>-0.732245583507259</v>
+        <v>-0.01585088993740991</v>
       </c>
       <c r="D17">
-        <v>-0.282495925965299</v>
+        <v>0.5420126397877605</v>
       </c>
       <c r="E17">
-        <v>0.2243283929298281</v>
+        <v>-0.371474722935748</v>
       </c>
       <c r="F17">
-        <v>0.2588138527692347</v>
+        <v>0.9075037841100155</v>
       </c>
       <c r="G17">
-        <v>1.219473905323812</v>
+        <v>0.8316312475707904</v>
       </c>
       <c r="H17">
-        <v>0.8746758066796412</v>
+        <v>-1.503027324766712</v>
       </c>
       <c r="I17">
-        <v>-0.331983780066458</v>
+        <v>0.5844814828372933</v>
       </c>
       <c r="J17">
-        <v>2.538964625266059</v>
+        <v>-1.415926555694758</v>
       </c>
       <c r="K17">
-        <v>16.96373609713402</v>
+        <v>0.08768207649898008</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.5550224296269219</v>
+        <v>0.4075267485473736</v>
       </c>
       <c r="C18">
-        <v>-0.08270464267015498</v>
+        <v>-0.395677506564678</v>
       </c>
       <c r="D18">
-        <v>0.3053676998005983</v>
+        <v>0.8801834280638264</v>
       </c>
       <c r="E18">
-        <v>0.326519757059067</v>
+        <v>0.8240012868960416</v>
       </c>
       <c r="F18">
-        <v>1.258716825248371</v>
+        <v>-1.506828012672421</v>
       </c>
       <c r="G18">
-        <v>0.9065560396152303</v>
+        <v>0.5851777377356859</v>
       </c>
       <c r="H18">
-        <v>-0.3075683904650559</v>
+        <v>-1.413516206336317</v>
       </c>
       <c r="I18">
-        <v>2.56058995656679</v>
+        <v>0.09130730319387159</v>
       </c>
       <c r="J18">
-        <v>16.98327123593844</v>
+        <v>-1.00596863892627</v>
       </c>
       <c r="K18">
-        <v>-7.013295712094065</v>
+        <v>2.078417206543824</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.5323901669713516</v>
+        <v>0.894107800292984</v>
       </c>
       <c r="C19">
-        <v>-0.3173522977745656</v>
+        <v>0.9039444494500604</v>
       </c>
       <c r="D19">
-        <v>0.05208023261138728</v>
+        <v>-1.483140835161198</v>
       </c>
       <c r="E19">
-        <v>0.9991011377058669</v>
+        <v>0.6089287258497156</v>
       </c>
       <c r="F19">
-        <v>0.7214238038270346</v>
+        <v>-1.400138308878028</v>
       </c>
       <c r="G19">
-        <v>-0.4786972560525239</v>
+        <v>0.1024610870391908</v>
       </c>
       <c r="H19">
-        <v>2.407005686963492</v>
+        <v>-0.9972094817445983</v>
       </c>
       <c r="I19">
-        <v>16.83519105900099</v>
+        <v>2.086249555651082</v>
       </c>
       <c r="J19">
-        <v>-7.156908461513627</v>
+        <v>-0.7194479620902375</v>
       </c>
       <c r="K19">
-        <v>-1.304212576887955</v>
+        <v>-0.3097808971123315</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01747906076259709</v>
+        <v>-1.891106206389463</v>
       </c>
       <c r="C20">
-        <v>0.325791487310068</v>
+        <v>0.306184312934914</v>
       </c>
       <c r="D20">
-        <v>1.136335388638962</v>
+        <v>-1.587146854948845</v>
       </c>
       <c r="E20">
-        <v>0.8291858963044396</v>
+        <v>-0.03983024365717569</v>
       </c>
       <c r="F20">
-        <v>-0.4034648218840479</v>
+        <v>-1.108140821426908</v>
       </c>
       <c r="G20">
-        <v>2.472038317693857</v>
+        <v>1.990474559193697</v>
       </c>
       <c r="H20">
-        <v>16.89208925287279</v>
+        <v>-0.8060693735215638</v>
       </c>
       <c r="I20">
-        <v>-7.103162416772058</v>
+        <v>-0.3915836941744774</v>
       </c>
       <c r="J20">
-        <v>-1.252573326410322</v>
+        <v>0.1763927606749033</v>
       </c>
       <c r="K20">
-        <v>1.851184235742179</v>
+        <v>0.2123908986520298</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.326882486427275</v>
+        <v>-1.260278376144401</v>
       </c>
       <c r="C21">
-        <v>1.227065812513619</v>
+        <v>0.005398175436707175</v>
       </c>
       <c r="D21">
-        <v>0.8231650825891843</v>
+        <v>-1.003076334557065</v>
       </c>
       <c r="E21">
-        <v>-0.402134558042931</v>
+        <v>2.054868045798269</v>
       </c>
       <c r="F21">
-        <v>2.455378142772866</v>
+        <v>-0.7390348593007608</v>
       </c>
       <c r="G21">
-        <v>16.87501669746343</v>
+        <v>-0.3317093078388547</v>
       </c>
       <c r="H21">
-        <v>-7.123755514369134</v>
+        <v>0.2352328430841514</v>
       </c>
       <c r="I21">
-        <v>-1.273598624229052</v>
+        <v>0.2696489813311058</v>
       </c>
       <c r="J21">
-        <v>1.82943713324947</v>
+        <v>1.243913332121188</v>
       </c>
       <c r="K21">
-        <v>-2.034050085468873</v>
+        <v>0.9012474907136685</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1.150793573282811</v>
+        <v>-0.726925718055047</v>
       </c>
       <c r="C22">
-        <v>0.7284642129470578</v>
+        <v>2.072808991233379</v>
       </c>
       <c r="D22">
-        <v>-0.4582746601593957</v>
+        <v>-0.6924698788870849</v>
       </c>
       <c r="E22">
-        <v>2.400980361362701</v>
+        <v>-0.3410758857904972</v>
       </c>
       <c r="F22">
-        <v>16.82818384421024</v>
+        <v>0.2242181314895599</v>
       </c>
       <c r="G22">
-        <v>-7.169229930957163</v>
+        <v>0.2454595531995296</v>
       </c>
       <c r="H22">
-        <v>-1.317451635367956</v>
+        <v>1.217359234089991</v>
       </c>
       <c r="I22">
-        <v>1.786062001034305</v>
+        <v>0.8713045138569209</v>
       </c>
       <c r="J22">
-        <v>-2.07705257007032</v>
+        <v>-0.3329927439433864</v>
       </c>
       <c r="K22">
-        <v>0.3633367468314175</v>
+        <v>2.538039200424461</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.7102171877794077</v>
+        <v>2.250032145113716</v>
       </c>
       <c r="C23">
-        <v>-0.4830306917594147</v>
+        <v>-0.4926785955919408</v>
       </c>
       <c r="D23">
-        <v>2.405171545803162</v>
+        <v>-0.260036578919727</v>
       </c>
       <c r="E23">
-        <v>16.83484099253249</v>
+        <v>0.2919240357793922</v>
       </c>
       <c r="F23">
-        <v>-7.156820695770811</v>
+        <v>0.2847024731240878</v>
       </c>
       <c r="G23">
-        <v>-1.30384594965314</v>
+        <v>1.24923946702558</v>
       </c>
       <c r="H23">
-        <v>1.800900908416289</v>
+        <v>0.895719903458323</v>
       </c>
       <c r="I23">
-        <v>-2.061831623283174</v>
+        <v>-0.3113674126426555</v>
       </c>
       <c r="J23">
-        <v>0.3788381389406285</v>
+        <v>2.557574339228875</v>
       </c>
       <c r="K23">
-        <v>0.1611678205046922</v>
+        <v>16.98195370147228</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.5518158306977698</v>
+        <v>-0.9423641198931374</v>
       </c>
       <c r="C24">
-        <v>2.191560135286637</v>
+        <v>-0.8827565764948909</v>
       </c>
       <c r="D24">
-        <v>16.80516807813639</v>
+        <v>0.01748451133171247</v>
       </c>
       <c r="E24">
-        <v>-7.193652847089544</v>
+        <v>0.02508678558158417</v>
       </c>
       <c r="F24">
-        <v>-1.303860790082196</v>
+        <v>1.064107231237384</v>
       </c>
       <c r="G24">
-        <v>1.803923336011677</v>
+        <v>0.724591037870855</v>
       </c>
       <c r="H24">
-        <v>-2.050893233001351</v>
+        <v>-0.4649516822459538</v>
       </c>
       <c r="I24">
-        <v>0.3913667245265824</v>
+        <v>2.409494162291427</v>
       </c>
       <c r="J24">
-        <v>0.1755128226312306</v>
+        <v>16.83834095205271</v>
       </c>
       <c r="K24">
-        <v>2.188985690010757</v>
+        <v>-7.155976982746544</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2.089157568705751</v>
+        <v>-0.5479252179577282</v>
       </c>
       <c r="C25">
-        <v>16.60688259526341</v>
+        <v>0.2911957660303932</v>
       </c>
       <c r="D25">
-        <v>-7.290126170382794</v>
+        <v>0.1623210365146793</v>
       </c>
       <c r="E25">
-        <v>-1.406267300345741</v>
+        <v>1.171869323714789</v>
       </c>
       <c r="F25">
-        <v>1.722034147016102</v>
+        <v>0.799823472039331</v>
       </c>
       <c r="G25">
-        <v>-2.131180455454951</v>
+        <v>-0.3999190515155895</v>
       </c>
       <c r="H25">
-        <v>0.3155989249401384</v>
+        <v>2.466392356163228</v>
       </c>
       <c r="I25">
-        <v>0.1007049457452194</v>
+        <v>16.89208699679428</v>
       </c>
       <c r="J25">
-        <v>2.115256271054485</v>
+        <v>-7.104337732268911</v>
       </c>
       <c r="K25">
-        <v>-1.009919017664734</v>
+        <v>-1.252727880856982</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>16.65561624879756</v>
+        <v>0.2922867651476002</v>
       </c>
       <c r="C26">
-        <v>-7.111692647758776</v>
+        <v>0.2530514603893359</v>
       </c>
       <c r="D26">
-        <v>-1.352928785598369</v>
+        <v>1.165848509999534</v>
       </c>
       <c r="E26">
-        <v>1.782292834937736</v>
+        <v>0.8011537358804479</v>
       </c>
       <c r="F26">
-        <v>-2.094488525141215</v>
+        <v>-0.4165792264365804</v>
       </c>
       <c r="G26">
-        <v>0.3501479672188517</v>
+        <v>2.449319800753873</v>
       </c>
       <c r="H26">
-        <v>0.1303028711156069</v>
+        <v>16.87149389919721</v>
       </c>
       <c r="I26">
-        <v>2.143696465361422</v>
+        <v>-7.125363030087641</v>
       </c>
       <c r="J26">
-        <v>-0.9826241088910329</v>
+        <v>-1.274474983349692</v>
       </c>
       <c r="K26">
-        <v>0.5873947004955775</v>
+        <v>1.829018325453521</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-7.760163528514655</v>
+        <v>0.176779221158528</v>
       </c>
       <c r="C27">
-        <v>-1.972704931650399</v>
+        <v>1.071147640357408</v>
       </c>
       <c r="D27">
-        <v>1.484331644698993</v>
+        <v>0.7450136337639832</v>
       </c>
       <c r="E27">
-        <v>-2.337633035000795</v>
+        <v>-0.4709770078467449</v>
       </c>
       <c r="F27">
-        <v>0.1799574474777199</v>
+        <v>2.402486947500678</v>
       </c>
       <c r="G27">
-        <v>-0.01776265254705356</v>
+        <v>16.82601948260918</v>
       </c>
       <c r="H27">
-        <v>2.013647994976054</v>
+        <v>-7.169216041226544</v>
       </c>
       <c r="I27">
-        <v>-1.105484592946542</v>
+        <v>-1.317850115564857</v>
       </c>
       <c r="J27">
-        <v>0.4692466839748882</v>
+        <v>1.786015840852075</v>
       </c>
       <c r="K27">
-        <v>2.685253770416337</v>
+        <v>-2.077131891612386</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-5.963582739262892</v>
+        <v>1.052900615189758</v>
       </c>
       <c r="C28">
-        <v>3.492658323703342</v>
+        <v>0.7202576021639642</v>
       </c>
       <c r="D28">
-        <v>-3.559819318210363</v>
+        <v>-0.4667858234062839</v>
       </c>
       <c r="E28">
-        <v>0.5693963315123343</v>
+        <v>2.409144095822926</v>
       </c>
       <c r="F28">
-        <v>-0.5063149725097174</v>
+        <v>16.83842871779553</v>
       </c>
       <c r="G28">
-        <v>1.956666122262014</v>
+        <v>-7.15561035551173</v>
       </c>
       <c r="H28">
-        <v>-1.399630449947365</v>
+        <v>-1.303011208182873</v>
       </c>
       <c r="I28">
-        <v>0.2904905967165777</v>
+        <v>1.801236787639221</v>
       </c>
       <c r="J28">
-        <v>2.4426464130219</v>
+        <v>-2.061630499503175</v>
       </c>
       <c r="K28">
-        <v>1.888155127428016</v>
+        <v>0.378927463172223</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1.422576334232133</v>
+        <v>0.651472463225609</v>
       </c>
       <c r="C29">
-        <v>-2.229440335207585</v>
+        <v>-0.6803972339228086</v>
       </c>
       <c r="D29">
-        <v>0.2263850154571423</v>
+        <v>2.379471181426825</v>
       </c>
       <c r="E29">
-        <v>0.004277005772430398</v>
+        <v>16.8015965664768</v>
       </c>
       <c r="F29">
-        <v>2.017152323015797</v>
+        <v>-7.155625195940784</v>
       </c>
       <c r="G29">
-        <v>-1.10876341243032</v>
+        <v>-1.299988780587484</v>
       </c>
       <c r="H29">
-        <v>0.4611974023810894</v>
+        <v>1.812175177921044</v>
       </c>
       <c r="I29">
-        <v>2.675099656673058</v>
+        <v>-2.049101913917221</v>
       </c>
       <c r="J29">
-        <v>2.08850208864409</v>
+        <v>0.3932724652987614</v>
       </c>
       <c r="K29">
-        <v>0.4783958115752514</v>
+        <v>0.1761101311306174</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-2.142663094158286</v>
+        <v>-0.7827998005036947</v>
       </c>
       <c r="C30">
-        <v>0.4385193315893903</v>
+        <v>2.181185698553846</v>
       </c>
       <c r="D30">
-        <v>0.09765756145592042</v>
+        <v>16.70512324318355</v>
       </c>
       <c r="E30">
-        <v>2.112943080692172</v>
+        <v>-7.25803170620433</v>
       </c>
       <c r="F30">
-        <v>-1.005392272376616</v>
+        <v>-1.38187796958306</v>
       </c>
       <c r="G30">
-        <v>0.5637091730102772</v>
+        <v>1.731887955467444</v>
       </c>
       <c r="H30">
-        <v>2.777202910646966</v>
+        <v>-2.124869713503665</v>
       </c>
       <c r="I30">
-        <v>2.190698416648519</v>
+        <v>0.3184645884127502</v>
       </c>
       <c r="J30">
-        <v>0.5806096851940874</v>
+        <v>0.1023807121743459</v>
       </c>
       <c r="K30">
-        <v>0.09153944279840598</v>
+        <v>2.116068020996487</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.1380740293107934</v>
+        <v>2.229919352087999</v>
       </c>
       <c r="C31">
-        <v>0.3704645608741375</v>
+        <v>16.88355676580757</v>
       </c>
       <c r="D31">
-        <v>2.383384680050185</v>
+        <v>-7.204693191456958</v>
       </c>
       <c r="E31">
-        <v>-0.7585588244579131</v>
+        <v>-1.321619281661425</v>
       </c>
       <c r="F31">
-        <v>0.8142944220642478</v>
+        <v>1.768579885781179</v>
       </c>
       <c r="G31">
-        <v>3.028239824838831</v>
+        <v>-2.090320671224951</v>
       </c>
       <c r="H31">
-        <v>2.441532159174244</v>
+        <v>0.3480625137831377</v>
       </c>
       <c r="I31">
-        <v>0.8314442960296049</v>
+        <v>0.1308209064812825</v>
       </c>
       <c r="J31">
-        <v>0.3423822026949559</v>
+        <v>2.143362929770189</v>
       </c>
       <c r="K31">
-        <v>2.344058366549328</v>
+        <v>-0.9825702347651935</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.3869591439271836</v>
+        <v>16.23508588505169</v>
       </c>
       <c r="C32">
-        <v>2.319295427005476</v>
+        <v>-7.824469337508988</v>
       </c>
       <c r="D32">
-        <v>-0.7984860453406349</v>
+        <v>-1.619580471900169</v>
       </c>
       <c r="E32">
-        <v>0.7707658969681049</v>
+        <v>1.5254353759216</v>
       </c>
       <c r="F32">
-        <v>2.984723188308192</v>
+        <v>-2.260511190966083</v>
       </c>
       <c r="G32">
-        <v>2.39812197981083</v>
+        <v>0.1999969901204772</v>
       </c>
       <c r="H32">
-        <v>0.7880158731308999</v>
+        <v>0.000772436095914153</v>
       </c>
       <c r="I32">
-        <v>0.2989532158504153</v>
+        <v>2.02050244571468</v>
       </c>
       <c r="J32">
-        <v>2.300630133237325</v>
+        <v>-1.100718251285883</v>
       </c>
       <c r="K32">
-        <v>1.05988638520051</v>
+        <v>0.4713505854851252</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>2.427055685810461</v>
+        <v>-11.81534714512148</v>
       </c>
       <c r="C33">
-        <v>-0.8009149136723334</v>
+        <v>0.3887462071041798</v>
       </c>
       <c r="D33">
-        <v>0.7696954787721907</v>
+        <v>0.3032490927120315</v>
       </c>
       <c r="E33">
-        <v>2.987001444775585</v>
+        <v>-1.871072306931469</v>
       </c>
       <c r="F33">
-        <v>2.399886253228498</v>
+        <v>-0.2885553298421866</v>
       </c>
       <c r="G33">
-        <v>0.7897386326780127</v>
+        <v>-0.05620943661812583</v>
       </c>
       <c r="H33">
-        <v>0.300699740732756</v>
+        <v>1.726356588713857</v>
       </c>
       <c r="I33">
-        <v>2.302374616818379</v>
+        <v>-1.279474338544193</v>
       </c>
       <c r="J33">
-        <v>1.061630351210087</v>
+        <v>0.2287432280906873</v>
       </c>
       <c r="K33">
-        <v>0.1217687626484084</v>
+        <v>2.474752816840843</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.650174915046223</v>
+        <v>-1.681335782367028</v>
       </c>
       <c r="C34">
-        <v>0.830892166578902</v>
+        <v>1.63362807571481</v>
       </c>
       <c r="D34">
-        <v>2.949288858969858</v>
+        <v>-2.214083622986661</v>
       </c>
       <c r="E34">
-        <v>2.380954587752795</v>
+        <v>0.2220366484399612</v>
       </c>
       <c r="F34">
-        <v>0.7723030187048723</v>
+        <v>0.004276764135658029</v>
       </c>
       <c r="G34">
-        <v>0.2822186379365156</v>
+        <v>2.017223626230902</v>
       </c>
       <c r="H34">
-        <v>2.283985151195001</v>
+        <v>-1.108767532879682</v>
       </c>
       <c r="I34">
-        <v>1.043272865012721</v>
+        <v>0.4611964717418459</v>
       </c>
       <c r="J34">
-        <v>0.1034024627365125</v>
+        <v>2.675099778056917</v>
       </c>
       <c r="K34">
-        <v>1.211994702249501</v>
+        <v>2.088502096880203</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.5428020203699957</v>
+        <v>1.720405316764108</v>
       </c>
       <c r="C35">
-        <v>2.920037488729503</v>
+        <v>-2.001949306854413</v>
       </c>
       <c r="D35">
-        <v>2.330884745703262</v>
+        <v>0.3154172041234512</v>
       </c>
       <c r="E35">
-        <v>0.7169599276919421</v>
+        <v>0.1000675218120323</v>
       </c>
       <c r="F35">
-        <v>0.2286531501142008</v>
+        <v>2.120594766284606</v>
       </c>
       <c r="G35">
-        <v>2.230293745174312</v>
+        <v>-1.006255762250494</v>
       </c>
       <c r="H35">
-        <v>0.9895367454277643</v>
+        <v>0.5632997257157533</v>
       </c>
       <c r="I35">
-        <v>0.04967835405015442</v>
+        <v>2.777296106061346</v>
       </c>
       <c r="J35">
-        <v>1.158270418349721</v>
-      </c>
-      <c r="K35">
-        <v>0.5885149887775344</v>
+        <v>2.190715970499038</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>2.992648702939084</v>
+        <v>-2.30239460913301</v>
       </c>
       <c r="C36">
-        <v>2.300352866574237</v>
+        <v>0.5882242035416683</v>
       </c>
       <c r="D36">
-        <v>0.6871053639263649</v>
+        <v>0.3705091211700455</v>
       </c>
       <c r="E36">
-        <v>0.2017735519033629</v>
+        <v>2.367428214203309</v>
       </c>
       <c r="F36">
-        <v>2.20283871490037</v>
+        <v>-0.7556705131965231</v>
       </c>
       <c r="G36">
-        <v>0.9620998292082691</v>
+        <v>0.8143366399076188</v>
       </c>
       <c r="H36">
-        <v>0.02225533421742021</v>
+        <v>3.028129848587071</v>
       </c>
       <c r="I36">
-        <v>1.130844252519133</v>
-      </c>
-      <c r="J36">
-        <v>0.5610889955136454</v>
-      </c>
-      <c r="K36">
-        <v>0.9022266013952623</v>
+        <v>2.441550581334556</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>2.794158013065459</v>
+        <v>0.6047187865947143</v>
       </c>
       <c r="C37">
-        <v>0.7059782038567191</v>
+        <v>0.3064198681253363</v>
       </c>
       <c r="D37">
-        <v>0.1551536600860205</v>
+        <v>2.327500993320587</v>
       </c>
       <c r="E37">
-        <v>2.191682961390041</v>
+        <v>-0.799199038292666</v>
       </c>
       <c r="F37">
-        <v>0.9467942632767605</v>
+        <v>0.7708200033769801</v>
       </c>
       <c r="G37">
-        <v>0.00613763004306056</v>
+        <v>2.984719669223657</v>
       </c>
       <c r="H37">
-        <v>1.115084499546823</v>
-      </c>
-      <c r="I37">
-        <v>0.5452947454358625</v>
-      </c>
-      <c r="J37">
-        <v>0.8864226138841197</v>
-      </c>
-      <c r="K37">
-        <v>0.8072692701606752</v>
+        <v>2.398122158435851</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.119418417829436</v>
+        <v>0.4141801269303216</v>
       </c>
       <c r="C38">
-        <v>0.1156443893295904</v>
+        <v>2.325072124988889</v>
       </c>
       <c r="D38">
-        <v>2.087783847493114</v>
+        <v>-0.8002694564885803</v>
       </c>
       <c r="E38">
-        <v>0.8766815709285666</v>
+        <v>0.7730982598443733</v>
       </c>
       <c r="F38">
-        <v>-0.06743754196721563</v>
+        <v>2.986483942641325</v>
       </c>
       <c r="G38">
-        <v>1.040580712794053</v>
-      </c>
-      <c r="H38">
-        <v>0.4711332001653794</v>
-      </c>
-      <c r="I38">
-        <v>0.8122389853160419</v>
-      </c>
-      <c r="J38">
-        <v>0.7330737473378889</v>
-      </c>
-      <c r="K38">
-        <v>0.534247480256173</v>
+        <v>2.399844917982964</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.2611631433118839</v>
+        <v>2.475812123614999</v>
       </c>
       <c r="C39">
-        <v>2.080764633212284</v>
+        <v>-0.739072768681869</v>
       </c>
       <c r="D39">
-        <v>0.8412435774606269</v>
+        <v>0.7353856740386454</v>
       </c>
       <c r="E39">
-        <v>-0.09112159910259898</v>
+        <v>2.967552277165622</v>
       </c>
       <c r="F39">
-        <v>1.016059141260885</v>
-      </c>
-      <c r="G39">
-        <v>0.4462420043477681</v>
-      </c>
-      <c r="H39">
-        <v>0.7874505722952686</v>
-      </c>
-      <c r="I39">
-        <v>0.7082834014682755</v>
-      </c>
-      <c r="J39">
-        <v>0.5094529188569945</v>
+        <v>2.382409304009824</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>2.091588404539168</v>
+        <v>-1.027162914890775</v>
       </c>
       <c r="C40">
-        <v>0.8052591246372691</v>
+        <v>0.706134303798291</v>
       </c>
       <c r="D40">
-        <v>-0.1304910489957294</v>
+        <v>2.91748243511609</v>
       </c>
       <c r="E40">
-        <v>0.9793737218907301</v>
-      </c>
-      <c r="F40">
-        <v>0.409213227481624</v>
-      </c>
-      <c r="G40">
-        <v>0.7503665359279048</v>
-      </c>
-      <c r="H40">
-        <v>0.6712246084039694</v>
-      </c>
-      <c r="I40">
-        <v>0.4723919369885569</v>
+        <v>2.327066212996893</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>1.084474727530034</v>
+        <v>0.7787455180078714</v>
       </c>
       <c r="C41">
-        <v>-0.2141644380367789</v>
+        <v>2.886950555987064</v>
       </c>
       <c r="D41">
-        <v>0.8870512497920024</v>
-      </c>
-      <c r="E41">
-        <v>0.3281561746780989</v>
-      </c>
-      <c r="F41">
-        <v>0.667810470134707</v>
-      </c>
-      <c r="G41">
-        <v>0.5885892822228219</v>
-      </c>
-      <c r="H41">
-        <v>0.3898100828494207</v>
+        <v>2.297211649231316</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.09099700375667652</v>
+        <v>3.380755702478286</v>
       </c>
       <c r="C42">
-        <v>0.8657960198576775</v>
-      </c>
-      <c r="D42">
-        <v>0.302932487019591</v>
-      </c>
-      <c r="E42">
-        <v>0.6457814005067818</v>
-      </c>
-      <c r="F42">
-        <v>0.5662525759626658</v>
-      </c>
-      <c r="G42">
-        <v>0.3674467125039105</v>
+        <v>2.31608448916167</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.8981794329520691</v>
-      </c>
-      <c r="C43">
-        <v>0.3559178437654984</v>
-      </c>
-      <c r="D43">
-        <v>0.6981109782470681</v>
-      </c>
-      <c r="E43">
-        <v>0.6180757560744174</v>
-      </c>
-      <c r="F43">
-        <v>0.4193590614173677</v>
+        <v>2.729524703134387</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.5090689742288268</v>
-      </c>
-      <c r="C44">
-        <v>0.6835102372417342</v>
-      </c>
-      <c r="D44">
-        <v>0.6042456057921061</v>
-      </c>
-      <c r="E44">
-        <v>0.4096013189004131</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.8081920207483597</v>
-      </c>
-      <c r="C45">
-        <v>0.6464167531449305</v>
-      </c>
-      <c r="D45">
-        <v>0.4452091955240907</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.7700312829900747</v>
-      </c>
-      <c r="C46">
-        <v>0.4504122884293594</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.4884023099363324</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-7.05089396092515</v>
+      </c>
+      <c r="C2">
+        <v>0.4951640574233429</v>
+      </c>
+      <c r="D2">
+        <v>0.2540629411565589</v>
+      </c>
+      <c r="E2">
+        <v>-0.05146028044184114</v>
+      </c>
+      <c r="F2">
+        <v>-1.840779753730213</v>
+      </c>
+      <c r="G2">
+        <v>-1.52252283582352</v>
+      </c>
+      <c r="H2">
+        <v>1.812171342946396</v>
+      </c>
+      <c r="I2">
+        <v>1.012837043967661</v>
+      </c>
+      <c r="J2">
+        <v>-1.230529537544581</v>
+      </c>
+      <c r="K2">
+        <v>-0.03474865260855897</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>1.752806838268613</v>
+      </c>
+      <c r="C3">
+        <v>0.250341706310496</v>
+      </c>
+      <c r="D3">
+        <v>-1.28059488849715</v>
+      </c>
+      <c r="E3">
+        <v>-1.19905105565492</v>
+      </c>
+      <c r="F3">
+        <v>2.173818991126645</v>
+      </c>
+      <c r="G3">
+        <v>1.320721547509466</v>
+      </c>
+      <c r="H3">
+        <v>-0.9164626463147461</v>
+      </c>
+      <c r="I3">
+        <v>0.2663323229369861</v>
+      </c>
+      <c r="J3">
+        <v>2.616359308193534</v>
+      </c>
+      <c r="K3">
+        <v>3.400006620178971</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>-1.722268712552484</v>
+      </c>
+      <c r="C4">
+        <v>-1.471785706347638</v>
+      </c>
+      <c r="D4">
+        <v>1.926863695060699</v>
+      </c>
+      <c r="E4">
+        <v>1.108519390286938</v>
+      </c>
+      <c r="F4">
+        <v>-1.113901261221945</v>
+      </c>
+      <c r="G4">
+        <v>0.07885456035613592</v>
+      </c>
+      <c r="H4">
+        <v>2.434155748633566</v>
+      </c>
+      <c r="I4">
+        <v>3.220919997029795</v>
+      </c>
+      <c r="J4">
+        <v>-0.8124429726419709</v>
+      </c>
+      <c r="K4">
+        <v>0.3087767258885332</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>2.66475814176161</v>
+      </c>
+      <c r="C5">
+        <v>1.631980138848701</v>
+      </c>
+      <c r="D5">
+        <v>-0.778302319128128</v>
+      </c>
+      <c r="E5">
+        <v>0.3309640567076939</v>
+      </c>
+      <c r="F5">
+        <v>2.63180130052458</v>
+      </c>
+      <c r="G5">
+        <v>3.390388640647932</v>
+      </c>
+      <c r="H5">
+        <v>-0.6596488560429008</v>
+      </c>
+      <c r="I5">
+        <v>0.4524665192461492</v>
+      </c>
+      <c r="J5">
+        <v>-0.02641388040788906</v>
+      </c>
+      <c r="K5">
+        <v>-0.9525228067123199</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>-1.718633844704732</v>
+      </c>
+      <c r="C6">
+        <v>-0.2802489089361619</v>
+      </c>
+      <c r="D6">
+        <v>2.211212925526485</v>
+      </c>
+      <c r="E6">
+        <v>3.068198334859151</v>
+      </c>
+      <c r="F6">
+        <v>-0.927460039990903</v>
+      </c>
+      <c r="G6">
+        <v>0.2135536408512282</v>
+      </c>
+      <c r="H6">
+        <v>-0.2495937829261381</v>
+      </c>
+      <c r="I6">
+        <v>-1.167248933575891</v>
+      </c>
+      <c r="J6">
+        <v>-0.07501658794883515</v>
+      </c>
+      <c r="K6">
+        <v>-0.6320522035438838</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-7.05089396092515</v>
+        <v>2.57376462671889</v>
       </c>
       <c r="C7">
-        <v>0.4951640574233429</v>
+        <v>3.201452788350823</v>
       </c>
       <c r="D7">
-        <v>0.2540629411565589</v>
+        <v>-0.8274807230904619</v>
       </c>
       <c r="E7">
-        <v>-0.05146028044184114</v>
+        <v>0.2673990701108693</v>
       </c>
       <c r="F7">
-        <v>-1.840779753730213</v>
+        <v>-0.2109767976058601</v>
       </c>
       <c r="G7">
-        <v>-1.52252283582352</v>
+        <v>-1.139676678708794</v>
       </c>
       <c r="H7">
-        <v>1.812171342946396</v>
+        <v>-0.0523335426776721</v>
       </c>
       <c r="I7">
-        <v>1.012837043967661</v>
+        <v>-0.6122702256731658</v>
       </c>
       <c r="J7">
-        <v>-1.230529537544581</v>
+        <v>-0.7925909935379489</v>
       </c>
       <c r="K7">
-        <v>-0.03474865260855897</v>
+        <v>-0.3994986046346392</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.752806838268613</v>
+        <v>-2.188521039328045</v>
       </c>
       <c r="C8">
-        <v>0.250341706310496</v>
+        <v>-0.7511424789139769</v>
       </c>
       <c r="D8">
-        <v>-1.28059488849715</v>
+        <v>-0.8470509425018682</v>
       </c>
       <c r="E8">
-        <v>-1.19905105565492</v>
+        <v>-1.627512704305444</v>
       </c>
       <c r="F8">
-        <v>2.173818991126645</v>
+        <v>-0.4420643241277283</v>
       </c>
       <c r="G8">
-        <v>1.320721547509466</v>
+        <v>-0.9541416491787224</v>
       </c>
       <c r="H8">
-        <v>-0.9164626463147461</v>
+        <v>-1.106918603968894</v>
       </c>
       <c r="I8">
-        <v>0.2663323229369861</v>
+        <v>-0.6993730625522002</v>
       </c>
       <c r="J8">
-        <v>2.616359308193534</v>
+        <v>0.2854910704126311</v>
       </c>
       <c r="K8">
-        <v>3.400006620178971</v>
+        <v>-0.36806359050384</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.722268712552484</v>
+        <v>-0.203923755983475</v>
       </c>
       <c r="C9">
-        <v>-1.471785706347638</v>
+        <v>-1.27719757670934</v>
       </c>
       <c r="D9">
-        <v>1.926863695060699</v>
+        <v>-0.1701995209029618</v>
       </c>
       <c r="E9">
-        <v>1.108519390286938</v>
+        <v>-0.7528483969801796</v>
       </c>
       <c r="F9">
-        <v>-1.113901261221945</v>
+        <v>-0.9344616833494241</v>
       </c>
       <c r="G9">
-        <v>0.07885456035613592</v>
+        <v>-0.5458927391419005</v>
       </c>
       <c r="H9">
-        <v>2.434155748633566</v>
+        <v>0.4297632116887396</v>
       </c>
       <c r="I9">
-        <v>3.220919997029795</v>
+        <v>-0.2291867996343293</v>
       </c>
       <c r="J9">
-        <v>-0.8124429726419709</v>
+        <v>0.3948257586456296</v>
       </c>
       <c r="K9">
-        <v>0.3087767258885332</v>
+        <v>-0.4817453202244423</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2.66475814176161</v>
+        <v>0.192397446810876</v>
       </c>
       <c r="C10">
-        <v>1.631980138848701</v>
+        <v>-0.3891767177148799</v>
       </c>
       <c r="D10">
-        <v>-0.778302319128128</v>
+        <v>-0.741254247061726</v>
       </c>
       <c r="E10">
-        <v>0.3309640567076939</v>
+        <v>-0.3896187674298801</v>
       </c>
       <c r="F10">
-        <v>2.63180130052458</v>
+        <v>0.5461767002476579</v>
       </c>
       <c r="G10">
-        <v>3.390388640647932</v>
+        <v>-0.128349642208081</v>
       </c>
       <c r="H10">
-        <v>-0.6596488560429008</v>
+        <v>0.4848303621142376</v>
       </c>
       <c r="I10">
-        <v>0.4524665192461492</v>
+        <v>-0.3970075749425614</v>
       </c>
       <c r="J10">
-        <v>-0.02641388040788906</v>
+        <v>0.8992979949927146</v>
       </c>
       <c r="K10">
-        <v>-0.9525228067123199</v>
+        <v>0.8331671283926859</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1.718633844704732</v>
+        <v>-0.707020100264367</v>
       </c>
       <c r="C11">
-        <v>-0.2802489089361619</v>
+        <v>-0.3254330447939742</v>
       </c>
       <c r="D11">
-        <v>2.211212925526485</v>
+        <v>0.5514558262745648</v>
       </c>
       <c r="E11">
-        <v>3.068198334859151</v>
+        <v>-0.1303699706376109</v>
       </c>
       <c r="F11">
-        <v>-0.927460039990903</v>
+        <v>0.4703639007252015</v>
       </c>
       <c r="G11">
-        <v>0.2135536408512282</v>
+        <v>-0.4155280787150669</v>
       </c>
       <c r="H11">
-        <v>-0.2495937829261381</v>
+        <v>0.8776012847274888</v>
       </c>
       <c r="I11">
-        <v>-1.167248933575891</v>
+        <v>0.810032018345348</v>
       </c>
       <c r="J11">
-        <v>-0.07501658794883515</v>
+        <v>-1.520135436580949</v>
       </c>
       <c r="K11">
-        <v>-0.6320522035438838</v>
+        <v>0.5699236114092057</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2.57376462671889</v>
+        <v>0.7626475054259367</v>
       </c>
       <c r="C12">
-        <v>3.201452788350823</v>
+        <v>-0.01585088993740991</v>
       </c>
       <c r="D12">
-        <v>-0.8274807230904619</v>
+        <v>0.5420126397877605</v>
       </c>
       <c r="E12">
-        <v>0.2673990701108693</v>
+        <v>-0.371474722935748</v>
       </c>
       <c r="F12">
-        <v>-0.2109767976058601</v>
+        <v>0.9075037841100155</v>
       </c>
       <c r="G12">
-        <v>-1.139676678708794</v>
+        <v>0.8316312475707904</v>
       </c>
       <c r="H12">
-        <v>-0.0523335426776721</v>
+        <v>-1.503027324766712</v>
       </c>
       <c r="I12">
-        <v>-0.6122702256731658</v>
+        <v>0.5844814828372933</v>
       </c>
       <c r="J12">
-        <v>-0.7925909935379489</v>
+        <v>-1.415926555694758</v>
       </c>
       <c r="K12">
-        <v>-0.3994986046346392</v>
+        <v>0.08768207649898008</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-2.188521039328045</v>
+        <v>0.4075267485473736</v>
       </c>
       <c r="C13">
-        <v>-0.7511424789139769</v>
+        <v>-0.395677506564678</v>
       </c>
       <c r="D13">
-        <v>-0.8470509425018682</v>
+        <v>0.8801834280638264</v>
       </c>
       <c r="E13">
-        <v>-1.627512704305444</v>
+        <v>0.8240012868960416</v>
       </c>
       <c r="F13">
-        <v>-0.4420643241277283</v>
+        <v>-1.506828012672421</v>
       </c>
       <c r="G13">
-        <v>-0.9541416491787224</v>
+        <v>0.5851777377356859</v>
       </c>
       <c r="H13">
-        <v>-1.106918603968894</v>
+        <v>-1.413516206336317</v>
       </c>
       <c r="I13">
-        <v>-0.6993730625522002</v>
+        <v>0.09130730319387159</v>
       </c>
       <c r="J13">
-        <v>0.2854910704126311</v>
+        <v>-1.00596863892627</v>
       </c>
       <c r="K13">
-        <v>-0.36806359050384</v>
+        <v>2.078417206543824</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.203923755983475</v>
+        <v>0.894107800292984</v>
       </c>
       <c r="C14">
-        <v>-1.27719757670934</v>
+        <v>0.9039444494500604</v>
       </c>
       <c r="D14">
-        <v>-0.1701995209029618</v>
+        <v>-1.483140835161198</v>
       </c>
       <c r="E14">
-        <v>-0.7528483969801796</v>
+        <v>0.6089287258497156</v>
       </c>
       <c r="F14">
-        <v>-0.9344616833494241</v>
+        <v>-1.400138308878028</v>
       </c>
       <c r="G14">
-        <v>-0.5458927391419005</v>
+        <v>0.1024610870391908</v>
       </c>
       <c r="H14">
-        <v>0.4297632116887396</v>
+        <v>-0.9972094817445983</v>
       </c>
       <c r="I14">
-        <v>-0.2291867996343293</v>
+        <v>2.086249555651082</v>
       </c>
       <c r="J14">
-        <v>0.3948257586456296</v>
+        <v>-0.7194479620902375</v>
       </c>
       <c r="K14">
-        <v>-0.4817453202244423</v>
+        <v>-0.3097808971123315</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.192397446810876</v>
+        <v>-1.891106206389463</v>
       </c>
       <c r="C15">
-        <v>-0.3891767177148799</v>
+        <v>0.306184312934914</v>
       </c>
       <c r="D15">
-        <v>-0.741254247061726</v>
+        <v>-1.587146854948845</v>
       </c>
       <c r="E15">
-        <v>-0.3896187674298801</v>
+        <v>-0.03983024365717569</v>
       </c>
       <c r="F15">
-        <v>0.5461767002476579</v>
+        <v>-1.108140821426908</v>
       </c>
       <c r="G15">
-        <v>-0.128349642208081</v>
+        <v>1.990474559193697</v>
       </c>
       <c r="H15">
-        <v>0.4848303621142376</v>
+        <v>-0.8060693735215638</v>
       </c>
       <c r="I15">
-        <v>-0.3970075749425614</v>
+        <v>-0.3915836941744774</v>
       </c>
       <c r="J15">
-        <v>0.8992979949927146</v>
+        <v>0.1763927606749033</v>
       </c>
       <c r="K15">
-        <v>0.8331671283926859</v>
+        <v>0.2123908986520298</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.707020100264367</v>
+        <v>-1.260278376144401</v>
       </c>
       <c r="C16">
-        <v>-0.3254330447939742</v>
+        <v>0.005398175436707175</v>
       </c>
       <c r="D16">
-        <v>0.5514558262745648</v>
+        <v>-1.003076334557065</v>
       </c>
       <c r="E16">
-        <v>-0.1303699706376109</v>
+        <v>2.054868045798269</v>
       </c>
       <c r="F16">
-        <v>0.4703639007252015</v>
+        <v>-0.7390348593007608</v>
       </c>
       <c r="G16">
-        <v>-0.4155280787150669</v>
+        <v>-0.3317093078388547</v>
       </c>
       <c r="H16">
-        <v>0.8776012847274888</v>
+        <v>0.2352328430841514</v>
       </c>
       <c r="I16">
-        <v>0.810032018345348</v>
+        <v>0.2696489813311058</v>
       </c>
       <c r="J16">
-        <v>-1.520135436580949</v>
+        <v>1.243913332121188</v>
       </c>
       <c r="K16">
-        <v>0.5699236114092057</v>
+        <v>0.9012474907136685</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.7626475054259367</v>
+        <v>-0.726925718055047</v>
       </c>
       <c r="C17">
-        <v>-0.01585088993740991</v>
+        <v>2.072808991233379</v>
       </c>
       <c r="D17">
-        <v>0.5420126397877605</v>
+        <v>-0.6924698788870849</v>
       </c>
       <c r="E17">
-        <v>-0.371474722935748</v>
+        <v>-0.3410758857904972</v>
       </c>
       <c r="F17">
-        <v>0.9075037841100155</v>
+        <v>0.2242181314895599</v>
       </c>
       <c r="G17">
-        <v>0.8316312475707904</v>
+        <v>0.2454595531995296</v>
       </c>
       <c r="H17">
-        <v>-1.503027324766712</v>
+        <v>1.217359234089991</v>
       </c>
       <c r="I17">
-        <v>0.5844814828372933</v>
+        <v>0.8713045138569209</v>
       </c>
       <c r="J17">
-        <v>-1.415926555694758</v>
+        <v>-0.3329927439433864</v>
       </c>
       <c r="K17">
-        <v>0.08768207649898008</v>
+        <v>2.538039200424461</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.4075267485473736</v>
+        <v>2.250032145113716</v>
       </c>
       <c r="C18">
-        <v>-0.395677506564678</v>
+        <v>-0.4926785955919408</v>
       </c>
       <c r="D18">
-        <v>0.8801834280638264</v>
+        <v>-0.260036578919727</v>
       </c>
       <c r="E18">
-        <v>0.8240012868960416</v>
+        <v>0.2919240357793922</v>
       </c>
       <c r="F18">
-        <v>-1.506828012672421</v>
+        <v>0.2847024731240878</v>
       </c>
       <c r="G18">
-        <v>0.5851777377356859</v>
+        <v>1.24923946702558</v>
       </c>
       <c r="H18">
-        <v>-1.413516206336317</v>
+        <v>0.895719903458323</v>
       </c>
       <c r="I18">
-        <v>0.09130730319387159</v>
+        <v>-0.3113674126426555</v>
       </c>
       <c r="J18">
-        <v>-1.00596863892627</v>
+        <v>2.557574339228875</v>
       </c>
       <c r="K18">
-        <v>2.078417206543824</v>
+        <v>16.98195370147228</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.894107800292984</v>
+        <v>-0.9423641198931374</v>
       </c>
       <c r="C19">
-        <v>0.9039444494500604</v>
+        <v>-0.8827565764948909</v>
       </c>
       <c r="D19">
-        <v>-1.483140835161198</v>
+        <v>0.01748451133171247</v>
       </c>
       <c r="E19">
-        <v>0.6089287258497156</v>
+        <v>0.02508678558158417</v>
       </c>
       <c r="F19">
-        <v>-1.400138308878028</v>
+        <v>1.064107231237384</v>
       </c>
       <c r="G19">
-        <v>0.1024610870391908</v>
+        <v>0.724591037870855</v>
       </c>
       <c r="H19">
-        <v>-0.9972094817445983</v>
+        <v>-0.4649516822459538</v>
       </c>
       <c r="I19">
-        <v>2.086249555651082</v>
+        <v>2.409494162291427</v>
       </c>
       <c r="J19">
-        <v>-0.7194479620902375</v>
+        <v>16.83834095205271</v>
       </c>
       <c r="K19">
-        <v>-0.3097808971123315</v>
+        <v>-8.245436254070261</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1.891106206389463</v>
+        <v>-0.5479252179577282</v>
       </c>
       <c r="C20">
-        <v>0.306184312934914</v>
+        <v>0.2911957660303932</v>
       </c>
       <c r="D20">
-        <v>-1.587146854948845</v>
+        <v>0.1623210365146793</v>
       </c>
       <c r="E20">
-        <v>-0.03983024365717569</v>
+        <v>1.171869323714789</v>
       </c>
       <c r="F20">
-        <v>-1.108140821426908</v>
+        <v>0.799823472039331</v>
       </c>
       <c r="G20">
-        <v>1.990474559193697</v>
+        <v>-0.3999190515155895</v>
       </c>
       <c r="H20">
-        <v>-0.8060693735215638</v>
+        <v>2.466392356163228</v>
       </c>
       <c r="I20">
-        <v>-0.3915836941744774</v>
+        <v>16.89208699679428</v>
       </c>
       <c r="J20">
-        <v>0.1763927606749033</v>
+        <v>-8.19379700359263</v>
       </c>
       <c r="K20">
-        <v>0.2123908986520298</v>
+        <v>-2.84145008766872</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1.260278376144401</v>
+        <v>0.2922867651476002</v>
       </c>
       <c r="C21">
-        <v>0.005398175436707175</v>
+        <v>0.2530514603893359</v>
       </c>
       <c r="D21">
-        <v>-1.003076334557065</v>
+        <v>1.165848509999534</v>
       </c>
       <c r="E21">
-        <v>2.054868045798269</v>
+        <v>0.8011537358804479</v>
       </c>
       <c r="F21">
-        <v>-0.7390348593007608</v>
+        <v>-0.4165792264365804</v>
       </c>
       <c r="G21">
-        <v>-0.3317093078388547</v>
+        <v>2.449319800753873</v>
       </c>
       <c r="H21">
-        <v>0.2352328430841514</v>
+        <v>16.87149389919721</v>
       </c>
       <c r="I21">
-        <v>0.2696489813311058</v>
+        <v>-8.21482230141136</v>
       </c>
       <c r="J21">
-        <v>1.243913332121188</v>
+        <v>-2.863197190161429</v>
       </c>
       <c r="K21">
-        <v>0.9012474907136685</v>
+        <v>-2.970044554270385</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.726925718055047</v>
+        <v>0.176779221158528</v>
       </c>
       <c r="C22">
-        <v>2.072808991233379</v>
+        <v>1.071147640357408</v>
       </c>
       <c r="D22">
-        <v>-0.6924698788870849</v>
+        <v>0.7450136337639832</v>
       </c>
       <c r="E22">
-        <v>-0.3410758857904972</v>
+        <v>-0.4709770078467449</v>
       </c>
       <c r="F22">
-        <v>0.2242181314895599</v>
+        <v>2.402486947500678</v>
       </c>
       <c r="G22">
-        <v>0.2454595531995296</v>
+        <v>16.82601948260918</v>
       </c>
       <c r="H22">
-        <v>1.217359234089991</v>
+        <v>-8.258675312550263</v>
       </c>
       <c r="I22">
-        <v>0.8713045138569209</v>
+        <v>-2.906572322376594</v>
       </c>
       <c r="J22">
-        <v>-0.3329927439433864</v>
+        <v>-3.01304703887183</v>
       </c>
       <c r="K22">
-        <v>2.538039200424461</v>
+        <v>-1.264410362799812</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>2.250032145113716</v>
+        <v>1.052900615189758</v>
       </c>
       <c r="C23">
-        <v>-0.4926785955919408</v>
+        <v>0.7202576021639642</v>
       </c>
       <c r="D23">
-        <v>-0.260036578919727</v>
+        <v>-0.4667858234062839</v>
       </c>
       <c r="E23">
-        <v>0.2919240357793922</v>
+        <v>2.409144095822926</v>
       </c>
       <c r="F23">
-        <v>0.2847024731240878</v>
+        <v>16.83842871779553</v>
       </c>
       <c r="G23">
-        <v>1.24923946702558</v>
+        <v>-8.245069626835448</v>
       </c>
       <c r="H23">
-        <v>0.895719903458323</v>
+        <v>-2.891733414994611</v>
       </c>
       <c r="I23">
-        <v>-0.3113674126426555</v>
+        <v>-2.997826092084685</v>
       </c>
       <c r="J23">
-        <v>2.557574339228875</v>
+        <v>-1.248908970690601</v>
       </c>
       <c r="K23">
-        <v>16.98195370147228</v>
+        <v>1.377007551962242</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.9423641198931374</v>
+        <v>0.651472463225609</v>
       </c>
       <c r="C24">
-        <v>-0.8827565764948909</v>
+        <v>-0.6803972339228086</v>
       </c>
       <c r="D24">
-        <v>0.01748451133171247</v>
+        <v>2.379471181426825</v>
       </c>
       <c r="E24">
-        <v>0.02508678558158417</v>
+        <v>16.8015965664768</v>
       </c>
       <c r="F24">
-        <v>1.064107231237384</v>
+        <v>-8.245084467264503</v>
       </c>
       <c r="G24">
-        <v>0.724591037870855</v>
+        <v>-2.888710987399222</v>
       </c>
       <c r="H24">
-        <v>-0.4649516822459538</v>
+        <v>-2.986887701802862</v>
       </c>
       <c r="I24">
-        <v>2.409494162291427</v>
+        <v>-1.236380385104647</v>
       </c>
       <c r="J24">
-        <v>16.83834095205271</v>
+        <v>1.39135255408878</v>
       </c>
       <c r="K24">
-        <v>-7.155976982746544</v>
+        <v>-4.251629431300895</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.5479252179577282</v>
+        <v>-0.7827998005036947</v>
       </c>
       <c r="C25">
-        <v>0.2911957660303932</v>
+        <v>2.181185698553846</v>
       </c>
       <c r="D25">
-        <v>0.1623210365146793</v>
+        <v>16.70512324318355</v>
       </c>
       <c r="E25">
-        <v>1.171869323714789</v>
+        <v>-8.347490977528048</v>
       </c>
       <c r="F25">
-        <v>0.799823472039331</v>
+        <v>-2.970600176394798</v>
       </c>
       <c r="G25">
-        <v>-0.3999190515155895</v>
+        <v>-3.067174924256461</v>
       </c>
       <c r="H25">
-        <v>2.466392356163228</v>
+        <v>-1.312148184691091</v>
       </c>
       <c r="I25">
-        <v>16.89208699679428</v>
+        <v>1.316544677202769</v>
       </c>
       <c r="J25">
-        <v>-7.104337732268911</v>
+        <v>-4.325358850257166</v>
       </c>
       <c r="K25">
-        <v>-1.252727880856982</v>
+        <v>-0.1708035991565908</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.2922867651476002</v>
+        <v>2.229919352087999</v>
       </c>
       <c r="C26">
-        <v>0.2530514603893359</v>
+        <v>16.88355676580757</v>
       </c>
       <c r="D26">
-        <v>1.165848509999534</v>
+        <v>-8.294152462780676</v>
       </c>
       <c r="E26">
-        <v>0.8011537358804479</v>
+        <v>-2.910341488473163</v>
       </c>
       <c r="F26">
-        <v>-0.4165792264365804</v>
+        <v>-3.030482993942726</v>
       </c>
       <c r="G26">
-        <v>2.449319800753873</v>
+        <v>-1.277599142412378</v>
       </c>
       <c r="H26">
-        <v>16.87149389919721</v>
+        <v>1.346142602573156</v>
       </c>
       <c r="I26">
-        <v>-7.125363030087641</v>
+        <v>-4.296918655950229</v>
       </c>
       <c r="J26">
-        <v>-1.274474983349692</v>
+        <v>-0.1435086903828894</v>
       </c>
       <c r="K26">
-        <v>1.829018325453521</v>
+        <v>-0.8093013361887404</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.176779221158528</v>
+        <v>16.23508588505169</v>
       </c>
       <c r="C27">
-        <v>1.071147640357408</v>
+        <v>-8.913928608832707</v>
       </c>
       <c r="D27">
-        <v>0.7450136337639832</v>
+        <v>-3.208302678711906</v>
       </c>
       <c r="E27">
-        <v>-0.4709770078467449</v>
+        <v>-3.273627503802305</v>
       </c>
       <c r="F27">
-        <v>2.402486947500678</v>
+        <v>-1.447789662153509</v>
       </c>
       <c r="G27">
-        <v>16.82601948260918</v>
+        <v>1.198077078910496</v>
       </c>
       <c r="H27">
-        <v>-7.169216041226544</v>
+        <v>-4.426967126335597</v>
       </c>
       <c r="I27">
-        <v>-1.317850115564857</v>
+        <v>-0.2663691744383981</v>
       </c>
       <c r="J27">
-        <v>1.786015840852075</v>
+        <v>-0.9274493527094297</v>
       </c>
       <c r="K27">
-        <v>-2.077131891612386</v>
+        <v>-1.682409047446016</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1.052900615189758</v>
+        <v>-15.45505818850624</v>
       </c>
       <c r="C28">
-        <v>0.7202576021639642</v>
+        <v>-9.472725861622012</v>
       </c>
       <c r="D28">
-        <v>-0.4667858234062839</v>
+        <v>-7.328552382229238</v>
       </c>
       <c r="E28">
-        <v>2.409144095822926</v>
+        <v>-4.609586673790414</v>
       </c>
       <c r="F28">
-        <v>16.83842871779553</v>
+        <v>-1.151156268988337</v>
       </c>
       <c r="G28">
-        <v>-7.15561035551173</v>
+        <v>-6.281451528663254</v>
       </c>
       <c r="H28">
-        <v>-1.303011208182873</v>
+        <v>-1.762193167921444</v>
       </c>
       <c r="I28">
-        <v>1.801236787639221</v>
+        <v>-2.184421587414436</v>
       </c>
       <c r="J28">
-        <v>-2.061630499503175</v>
+        <v>-2.774211680055425</v>
       </c>
       <c r="K28">
-        <v>0.378927463172223</v>
+        <v>1.028330335317664</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.651472463225609</v>
+        <v>-7.994285279390285</v>
       </c>
       <c r="C29">
-        <v>-0.6803972339228086</v>
+        <v>-0.8026372084907201</v>
       </c>
       <c r="D29">
-        <v>2.379471181426825</v>
+        <v>-2.982422427425799</v>
       </c>
       <c r="E29">
-        <v>16.8015965664768</v>
+        <v>1.781975008928935</v>
       </c>
       <c r="F29">
-        <v>-7.155625195940784</v>
+        <v>-5.016453433667273</v>
       </c>
       <c r="G29">
-        <v>-1.299988780587484</v>
+        <v>-0.2354757299849102</v>
       </c>
       <c r="H29">
-        <v>1.812175177921044</v>
+        <v>-1.240589067002173</v>
       </c>
       <c r="I29">
-        <v>-2.049101913917221</v>
+        <v>-1.813602156368757</v>
       </c>
       <c r="J29">
-        <v>0.3932724652987614</v>
+        <v>1.775990217200096</v>
       </c>
       <c r="K29">
-        <v>0.1761101311306174</v>
+        <v>1.396813014174962</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.7827998005036947</v>
+        <v>-3.818189928190074</v>
       </c>
       <c r="C30">
-        <v>2.181185698553846</v>
+        <v>-1.581194523370781</v>
       </c>
       <c r="D30">
-        <v>16.70512324318355</v>
+        <v>1.290361495048373</v>
       </c>
       <c r="E30">
-        <v>-7.25803170620433</v>
+        <v>-4.395236335820193</v>
       </c>
       <c r="F30">
-        <v>-1.38187796958306</v>
+        <v>-0.2574576371742165</v>
       </c>
       <c r="G30">
-        <v>1.731887955467444</v>
+        <v>-0.9198503084085592</v>
       </c>
       <c r="H30">
-        <v>-2.124869713503665</v>
+        <v>-1.675899323306269</v>
       </c>
       <c r="I30">
-        <v>0.3184645884127502</v>
+        <v>2.013053691965542</v>
       </c>
       <c r="J30">
-        <v>0.1023807121743459</v>
+        <v>1.579794606139846</v>
       </c>
       <c r="K30">
-        <v>2.116068020996487</v>
+        <v>0.6830005012248022</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>2.229919352087999</v>
+        <v>-1.468070367507824</v>
       </c>
       <c r="C31">
-        <v>16.88355676580757</v>
+        <v>1.530376635055572</v>
       </c>
       <c r="D31">
-        <v>-7.204693191456958</v>
+        <v>-4.236576996680119</v>
       </c>
       <c r="E31">
-        <v>-1.321619281661425</v>
+        <v>-0.05958659390433618</v>
       </c>
       <c r="F31">
-        <v>1.768579885781179</v>
+        <v>-0.7311648400337172</v>
       </c>
       <c r="G31">
-        <v>-2.090320671224951</v>
+        <v>-1.486997544917161</v>
       </c>
       <c r="H31">
-        <v>0.3480625137831377</v>
+        <v>2.201946929748468</v>
       </c>
       <c r="I31">
-        <v>0.1308209064812825</v>
+        <v>1.768813500063337</v>
       </c>
       <c r="J31">
-        <v>2.143362929770189</v>
+        <v>0.871983904205494</v>
       </c>
       <c r="K31">
-        <v>-0.9825702347651935</v>
+        <v>2.138677650396525</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>16.23508588505169</v>
+        <v>1.272935213924616</v>
       </c>
       <c r="C32">
-        <v>-7.824469337508988</v>
+        <v>-4.054947010645998</v>
       </c>
       <c r="D32">
-        <v>-1.619580471900169</v>
+        <v>0.08505610762989146</v>
       </c>
       <c r="E32">
-        <v>1.5254353759216</v>
+        <v>-0.5884549910064811</v>
       </c>
       <c r="F32">
-        <v>-2.260511190966083</v>
+        <v>-1.343686149063089</v>
       </c>
       <c r="G32">
-        <v>0.1999969901204772</v>
+        <v>2.345455647684825</v>
       </c>
       <c r="H32">
-        <v>0.000772436095914153</v>
+        <v>1.91221592655345</v>
       </c>
       <c r="I32">
-        <v>2.02050244571468</v>
+        <v>1.015411182709461</v>
       </c>
       <c r="J32">
-        <v>-1.100718251285883</v>
+        <v>2.282101209642167</v>
       </c>
       <c r="K32">
-        <v>0.4713505854851252</v>
+        <v>2.689122008243421</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-11.81534714512148</v>
+        <v>-3.915759019381757</v>
       </c>
       <c r="C33">
-        <v>0.3887462071041798</v>
+        <v>0.0111540387513932</v>
       </c>
       <c r="D33">
-        <v>0.3032490927120315</v>
+        <v>-0.6447344336303311</v>
       </c>
       <c r="E33">
-        <v>-1.871072306931469</v>
+        <v>-1.40003599969205</v>
       </c>
       <c r="F33">
-        <v>-0.2885553298421866</v>
+        <v>2.288773692163297</v>
       </c>
       <c r="G33">
-        <v>-0.05620943661812583</v>
+        <v>1.8556164114515</v>
       </c>
       <c r="H33">
-        <v>1.726356588713857</v>
+        <v>0.958801076121512</v>
       </c>
       <c r="I33">
-        <v>-1.279474338544193</v>
+        <v>2.225491060592581</v>
       </c>
       <c r="J33">
-        <v>0.2287432280906873</v>
+        <v>2.632512193107193</v>
       </c>
       <c r="K33">
-        <v>2.474752816840843</v>
+        <v>0.3357055631607772</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1.681335782367028</v>
+        <v>-0.4477871799147952</v>
       </c>
       <c r="C34">
-        <v>1.63362807571481</v>
+        <v>-0.5129961070518541</v>
       </c>
       <c r="D34">
-        <v>-2.214083622986661</v>
+        <v>-1.281490239017561</v>
       </c>
       <c r="E34">
-        <v>0.2220366484399612</v>
+        <v>2.399189888724912</v>
       </c>
       <c r="F34">
-        <v>0.004276764135658029</v>
+        <v>1.967470175801554</v>
       </c>
       <c r="G34">
-        <v>2.017223626230902</v>
+        <v>1.070579463027646</v>
       </c>
       <c r="H34">
-        <v>-1.108767532879682</v>
+        <v>2.337256090407976</v>
       </c>
       <c r="I34">
-        <v>0.4611964717418459</v>
+        <v>2.744280510038155</v>
       </c>
       <c r="J34">
-        <v>2.675099778056917</v>
+        <v>0.4474736173951432</v>
       </c>
       <c r="K34">
-        <v>2.088502096880203</v>
+        <v>1.036271459703652</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.720405316764108</v>
+        <v>-0.7654940262780713</v>
       </c>
       <c r="C35">
-        <v>-2.001949306854413</v>
+        <v>-1.359631883301048</v>
       </c>
       <c r="D35">
-        <v>0.3154172041234512</v>
+        <v>2.312759541981872</v>
       </c>
       <c r="E35">
-        <v>0.1000675218120323</v>
+        <v>1.87411237128999</v>
       </c>
       <c r="F35">
-        <v>2.120594766284606</v>
+        <v>0.9788105145670355</v>
       </c>
       <c r="G35">
-        <v>-1.006255762250494</v>
+        <v>2.245557861195514</v>
       </c>
       <c r="H35">
-        <v>0.5632997257157533</v>
+        <v>2.652500095901532</v>
       </c>
       <c r="I35">
-        <v>2.777296106061346</v>
+        <v>0.3557012106457168</v>
       </c>
       <c r="J35">
-        <v>2.190715970499038</v>
+        <v>0.9445017605433268</v>
+      </c>
+      <c r="K35">
+        <v>0.8156215557769545</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-2.30239460913301</v>
+        <v>-1.584844809696242</v>
       </c>
       <c r="C36">
-        <v>0.5882242035416683</v>
+        <v>2.225587493941298</v>
       </c>
       <c r="D36">
-        <v>0.3705091211700455</v>
+        <v>1.792215710123412</v>
       </c>
       <c r="E36">
-        <v>2.367428214203309</v>
+        <v>0.8921801269326108</v>
       </c>
       <c r="F36">
-        <v>-0.7556705131965231</v>
+        <v>2.159470248752375</v>
       </c>
       <c r="G36">
-        <v>0.8143366399076188</v>
+        <v>2.566466955128</v>
       </c>
       <c r="H36">
-        <v>3.028129848587071</v>
+        <v>0.2696487365895708</v>
       </c>
       <c r="I36">
-        <v>2.441550581334556</v>
+        <v>0.8584493911956547</v>
+      </c>
+      <c r="J36">
+        <v>0.7295697014046134</v>
+      </c>
+      <c r="K36">
+        <v>0.3368214888286825</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.6047187865947143</v>
+        <v>1.924547523330634</v>
       </c>
       <c r="C37">
-        <v>0.3064198681253363</v>
+        <v>1.837752018392468</v>
       </c>
       <c r="D37">
-        <v>2.327500993320587</v>
+        <v>0.9228868117818971</v>
       </c>
       <c r="E37">
-        <v>-0.799199038292666</v>
+        <v>2.183569829045848</v>
       </c>
       <c r="F37">
-        <v>0.7708200033769801</v>
+        <v>2.592232473698328</v>
       </c>
       <c r="G37">
-        <v>2.984719669223657</v>
+        <v>0.2952759956873251</v>
       </c>
       <c r="H37">
-        <v>2.398122158435851</v>
+        <v>0.8840576835258125</v>
+      </c>
+      <c r="I37">
+        <v>0.7551853831224142</v>
+      </c>
+      <c r="J37">
+        <v>0.3624362755198377</v>
+      </c>
+      <c r="K37">
+        <v>-0.1645201961656</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.4141801269303216</v>
+        <v>2.14025741546503</v>
       </c>
       <c r="C38">
-        <v>2.325072124988889</v>
+        <v>0.8824804661452231</v>
       </c>
       <c r="D38">
-        <v>-0.8002694564885803</v>
+        <v>2.107771497805173</v>
       </c>
       <c r="E38">
-        <v>0.7730982598443733</v>
+        <v>2.538954042286217</v>
       </c>
       <c r="F38">
-        <v>2.986483942641325</v>
+        <v>0.239152696151653</v>
       </c>
       <c r="G38">
-        <v>2.399844917982964</v>
+        <v>0.8274832347388394</v>
+      </c>
+      <c r="H38">
+        <v>0.6988289072575878</v>
+      </c>
+      <c r="I38">
+        <v>0.3060564166224202</v>
+      </c>
+      <c r="J38">
+        <v>-0.2209051084517347</v>
+      </c>
+      <c r="K38">
+        <v>-0.7883590055385574</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>2.475812123614999</v>
+        <v>1.264783020515967</v>
       </c>
       <c r="C39">
-        <v>-0.739072768681869</v>
+        <v>2.065308252798044</v>
       </c>
       <c r="D39">
-        <v>0.7353856740386454</v>
+        <v>2.453057790235982</v>
       </c>
       <c r="E39">
-        <v>2.967552277165622</v>
+        <v>0.1822491602543486</v>
       </c>
       <c r="F39">
-        <v>2.382409304009824</v>
+        <v>0.7672367289805481</v>
+      </c>
+      <c r="G39">
+        <v>0.6377979563533887</v>
+      </c>
+      <c r="H39">
+        <v>0.2453355287070607</v>
+      </c>
+      <c r="I39">
+        <v>-0.2816460449242957</v>
+      </c>
+      <c r="J39">
+        <v>-0.8491112275603394</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1.027162914890775</v>
+        <v>2.237501440990487</v>
       </c>
       <c r="C40">
-        <v>0.706134303798291</v>
+        <v>2.415060755269173</v>
       </c>
       <c r="D40">
-        <v>2.91748243511609</v>
+        <v>0.1183412555208663</v>
       </c>
       <c r="E40">
-        <v>2.327066212996893</v>
+        <v>0.7165871220055329</v>
+      </c>
+      <c r="F40">
+        <v>0.5860519368627756</v>
+      </c>
+      <c r="G40">
+        <v>0.1932036365768971</v>
+      </c>
+      <c r="H40">
+        <v>-0.3336670262192738</v>
+      </c>
+      <c r="I40">
+        <v>-0.9011338785371812</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.7787455180078714</v>
+        <v>2.694961680613143</v>
       </c>
       <c r="C41">
-        <v>2.886950555987064</v>
+        <v>0.06379627944161226</v>
       </c>
       <c r="D41">
-        <v>2.297211649231316</v>
+        <v>0.634121692874074</v>
+      </c>
+      <c r="E41">
+        <v>0.5191189374215008</v>
+      </c>
+      <c r="F41">
+        <v>0.124664581303394</v>
+      </c>
+      <c r="G41">
+        <v>-0.4024573203604156</v>
+      </c>
+      <c r="H41">
+        <v>-0.9698306731703276</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>3.380755702478286</v>
+        <v>0.4100296226169571</v>
       </c>
       <c r="C42">
-        <v>2.31608448916167</v>
+        <v>0.5949262401673306</v>
+      </c>
+      <c r="D42">
+        <v>0.4602750016395889</v>
+      </c>
+      <c r="E42">
+        <v>0.07837941238240664</v>
+      </c>
+      <c r="F42">
+        <v>-0.4500763508995088</v>
+      </c>
+      <c r="G42">
+        <v>-1.017573636088066</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>2.729524703134387</v>
+        <v>0.6763612465717521</v>
+      </c>
+      <c r="C43">
+        <v>0.4808387000789698</v>
+      </c>
+      <c r="D43">
+        <v>0.09651348314158592</v>
+      </c>
+      <c r="E43">
+        <v>-0.4301743986779756</v>
+      </c>
+      <c r="F43">
+        <v>-0.9978748356509284</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.5971543855250295</v>
+      </c>
+      <c r="C44">
+        <v>0.1070820278333248</v>
+      </c>
+      <c r="D44">
+        <v>-0.4212941371150711</v>
+      </c>
+      <c r="E44">
+        <v>-0.9862420454078226</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.2142986711989134</v>
+      </c>
+      <c r="C45">
+        <v>-0.3786671769318336</v>
+      </c>
+      <c r="D45">
+        <v>-0.9548772271524208</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.3353643931559025</v>
+      </c>
+      <c r="C46">
+        <v>-0.9332816586406467</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.9805349485638835</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>1.812171342946396</v>
       </c>
-      <c r="I2">
-        <v>1.012837043967661</v>
-      </c>
-      <c r="J2">
-        <v>-1.230529537544581</v>
-      </c>
-      <c r="K2">
-        <v>-0.03474865260855897</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>2.173818991126645</v>
       </c>
-      <c r="G3">
-        <v>1.320721547509466</v>
-      </c>
-      <c r="H3">
-        <v>-0.9164626463147461</v>
-      </c>
-      <c r="I3">
-        <v>0.2663323229369861</v>
-      </c>
-      <c r="J3">
-        <v>2.616359308193534</v>
-      </c>
-      <c r="K3">
-        <v>3.400006620178971</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>2.434155748633566</v>
       </c>
-      <c r="I4">
-        <v>3.220919997029795</v>
-      </c>
-      <c r="J4">
-        <v>-0.8124429726419709</v>
-      </c>
-      <c r="K4">
-        <v>0.3087767258885332</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>2.63180130052458</v>
       </c>
-      <c r="G5">
-        <v>3.390388640647932</v>
-      </c>
-      <c r="H5">
-        <v>-0.6596488560429008</v>
-      </c>
-      <c r="I5">
-        <v>0.4524665192461492</v>
-      </c>
-      <c r="J5">
-        <v>-0.02641388040788906</v>
-      </c>
-      <c r="K5">
-        <v>-0.9525228067123199</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>-0.2495937829261381</v>
       </c>
-      <c r="I6">
-        <v>-1.167248933575891</v>
-      </c>
-      <c r="J6">
-        <v>-0.07501658794883515</v>
-      </c>
-      <c r="K6">
-        <v>-0.6320522035438838</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>-0.2109767976058601</v>
       </c>
-      <c r="G7">
-        <v>-1.139676678708794</v>
-      </c>
-      <c r="H7">
-        <v>-0.0523335426776721</v>
-      </c>
-      <c r="I7">
-        <v>-0.6122702256731658</v>
-      </c>
-      <c r="J7">
-        <v>-0.7925909935379489</v>
-      </c>
-      <c r="K7">
-        <v>-0.3994986046346392</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>-1.106918603968894</v>
       </c>
-      <c r="I8">
-        <v>-0.6993730625522002</v>
-      </c>
-      <c r="J8">
-        <v>0.2854910704126311</v>
-      </c>
-      <c r="K8">
-        <v>-0.36806359050384</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>-0.9344616833494241</v>
       </c>
-      <c r="G9">
-        <v>-0.5458927391419005</v>
-      </c>
-      <c r="H9">
-        <v>0.4297632116887396</v>
-      </c>
-      <c r="I9">
-        <v>-0.2291867996343293</v>
-      </c>
-      <c r="J9">
-        <v>0.3948257586456296</v>
-      </c>
-      <c r="K9">
-        <v>-0.4817453202244423</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>0.4848303621142376</v>
       </c>
-      <c r="I10">
-        <v>-0.3970075749425614</v>
-      </c>
-      <c r="J10">
-        <v>0.8992979949927146</v>
-      </c>
-      <c r="K10">
-        <v>0.8331671283926859</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>0.4703639007252015</v>
       </c>
-      <c r="G11">
-        <v>-0.4155280787150669</v>
-      </c>
-      <c r="H11">
-        <v>0.8776012847274888</v>
-      </c>
-      <c r="I11">
-        <v>0.810032018345348</v>
-      </c>
-      <c r="J11">
-        <v>-1.520135436580949</v>
-      </c>
-      <c r="K11">
-        <v>0.5699236114092057</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>-1.503027324766712</v>
       </c>
-      <c r="I12">
-        <v>0.5844814828372933</v>
-      </c>
-      <c r="J12">
-        <v>-1.415926555694758</v>
-      </c>
-      <c r="K12">
-        <v>0.08768207649898008</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>-1.00596863892627</v>
       </c>
-      <c r="K13">
-        <v>2.078417206543824</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>-0.9972094817445983</v>
       </c>
-      <c r="I14">
-        <v>2.086249555651082</v>
-      </c>
-      <c r="J14">
-        <v>-0.7194479620902375</v>
-      </c>
-      <c r="K14">
-        <v>-0.3097808971123315</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>0.1763927606749033</v>
       </c>
-      <c r="K15">
-        <v>0.2123908986520298</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>0.2352328430841514</v>
       </c>
-      <c r="I16">
-        <v>0.2696489813311058</v>
-      </c>
-      <c r="J16">
-        <v>1.243913332121188</v>
-      </c>
-      <c r="K16">
-        <v>0.9012474907136685</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>-0.3329927439433864</v>
       </c>
-      <c r="K17">
-        <v>2.538039200424461</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>-0.3113674126426555</v>
       </c>
-      <c r="J18">
-        <v>2.557574339228875</v>
-      </c>
-      <c r="K18">
-        <v>16.98195370147228</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>-0.4649516822459538</v>
       </c>
-      <c r="I19">
-        <v>2.409494162291427</v>
-      </c>
-      <c r="J19">
-        <v>16.83834095205271</v>
-      </c>
-      <c r="K19">
-        <v>-8.245436254070261</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>-2.863197190161429</v>
       </c>
-      <c r="K21">
-        <v>-2.970044554270385</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>-2.906572322376594</v>
       </c>
-      <c r="J22">
-        <v>-3.01304703887183</v>
-      </c>
-      <c r="K22">
-        <v>-1.264410362799812</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>-2.891733414994611</v>
       </c>
-      <c r="I23">
-        <v>-2.997826092084685</v>
-      </c>
-      <c r="J23">
-        <v>-1.248908970690601</v>
-      </c>
-      <c r="K23">
-        <v>1.377007551962242</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>-4.325358850257166</v>
       </c>
-      <c r="K25">
-        <v>-0.1708035991565908</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>-4.296918655950229</v>
       </c>
-      <c r="J26">
-        <v>-0.1435086903828894</v>
-      </c>
-      <c r="K26">
-        <v>-0.8093013361887404</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>-4.426967126335597</v>
       </c>
-      <c r="I27">
-        <v>-0.2663691744383981</v>
-      </c>
-      <c r="J27">
-        <v>-0.9274493527094297</v>
-      </c>
-      <c r="K27">
-        <v>-1.682409047446016</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>1.775990217200096</v>
       </c>
-      <c r="K29">
-        <v>1.396813014174962</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>2.013053691965542</v>
       </c>
-      <c r="J30">
-        <v>1.579794606139846</v>
-      </c>
-      <c r="K30">
-        <v>0.6830005012248022</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>2.201946929748468</v>
       </c>
-      <c r="I31">
-        <v>1.768813500063337</v>
-      </c>
-      <c r="J31">
-        <v>0.871983904205494</v>
-      </c>
-      <c r="K31">
-        <v>2.138677650396525</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>2.632512193107193</v>
       </c>
-      <c r="K33">
-        <v>0.3357055631607772</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>2.744280510038155</v>
       </c>
-      <c r="J34">
-        <v>0.4474736173951432</v>
-      </c>
-      <c r="K34">
-        <v>1.036271459703652</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>2.652500095901532</v>
       </c>
-      <c r="I35">
-        <v>0.3557012106457168</v>
-      </c>
-      <c r="J35">
-        <v>0.9445017605433268</v>
-      </c>
-      <c r="K35">
-        <v>0.8156215557769545</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>0.3624362755198377</v>
       </c>
-      <c r="K37">
-        <v>-0.1645201961656</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>0.3060564166224202</v>
       </c>
-      <c r="J38">
-        <v>-0.2209051084517347</v>
-      </c>
-      <c r="K38">
-        <v>-0.7883590055385574</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>0.2453355287070607</v>
-      </c>
-      <c r="I39">
-        <v>-0.2816460449242957</v>
-      </c>
-      <c r="J39">
-        <v>-0.8491112275603394</v>
       </c>
     </row>
     <row r="40" spans="1:11">
